--- a/ejemplo_carga_masiva.xlsx
+++ b/ejemplo_carga_masiva.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2432" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="666">
   <si>
     <t xml:space="preserve">Owner</t>
   </si>
@@ -1391,9 +1391,6 @@
     <t xml:space="preserve">F36071497</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHEN</t>
   </si>
   <si>
@@ -1946,18 +1943,18 @@
     <t xml:space="preserve">LATAM AIRLINES</t>
   </si>
   <si>
+    <t xml:space="preserve">LA310 PUQ-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00-16:30+1</t>
+  </si>
+  <si>
     <t xml:space="preserve">OU651 SPU-ZAG</t>
   </si>
   <si>
     <t xml:space="preserve">06:50-07:40</t>
   </si>
   <si>
-    <t xml:space="preserve">LA310 PUQ-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00-16:30+1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hotel SCL</t>
   </si>
   <si>
@@ -2015,10 +2012,7 @@
     <t xml:space="preserve">10/22/1986</t>
   </si>
   <si>
-    <t xml:space="preserve">KL702 SCL-AMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:50-12:00</t>
+    <t xml:space="preserve">15:00-17:03+1</t>
   </si>
   <si>
     <t xml:space="preserve">10:17-15:05</t>
@@ -2587,8 +2581,8 @@
   </sheetPr>
   <dimension ref="A1:CH75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AM5" activeCellId="0" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11530,15 +11524,9 @@
       <c r="AM47" s="32"/>
       <c r="AN47" s="33"/>
       <c r="AO47" s="32"/>
-      <c r="AP47" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="AQ47" s="32" t="s">
-        <v>456</v>
-      </c>
-      <c r="AR47" s="32" t="s">
-        <v>456</v>
-      </c>
+      <c r="AP47" s="32"/>
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="32"/>
       <c r="AS47" s="32"/>
       <c r="AT47" s="32"/>
       <c r="AU47" s="33"/>
@@ -11604,22 +11592,22 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="K48" s="32" t="s">
         <v>457</v>
-      </c>
-      <c r="K48" s="32" t="s">
-        <v>458</v>
       </c>
       <c r="L48" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M48" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="N48" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="N48" s="32" t="s">
+      <c r="O48" s="32" t="s">
         <v>460</v>
-      </c>
-      <c r="O48" s="32" t="s">
-        <v>461</v>
       </c>
       <c r="P48" s="33" t="n">
         <v>33808</v>
@@ -11637,22 +11625,22 @@
         <v>98</v>
       </c>
       <c r="U48" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="V48" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W48" s="33" t="s">
+        <v>462</v>
+      </c>
+      <c r="X48" s="32" t="s">
         <v>463</v>
-      </c>
-      <c r="X48" s="32" t="s">
-        <v>464</v>
       </c>
       <c r="Y48" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z48" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA48" s="32"/>
       <c r="AB48" s="33"/>
@@ -11661,7 +11649,7 @@
       <c r="AE48" s="32"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AH48" s="33" t="n">
         <v>45609</v>
@@ -11670,7 +11658,7 @@
         <v>168</v>
       </c>
       <c r="AJ48" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AK48" s="33" t="n">
         <v>45656</v>
@@ -11679,7 +11667,7 @@
         <v>168</v>
       </c>
       <c r="AM48" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN48" s="33" t="n">
         <v>45615</v>
@@ -11761,10 +11749,10 @@
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
       <c r="J49" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="K49" s="32" t="s">
         <v>468</v>
-      </c>
-      <c r="K49" s="32" t="s">
-        <v>469</v>
       </c>
       <c r="L49" s="32" t="s">
         <v>128</v>
@@ -11773,10 +11761,10 @@
         <v>174</v>
       </c>
       <c r="N49" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="O49" s="32" t="s">
         <v>470</v>
-      </c>
-      <c r="O49" s="32" t="s">
-        <v>471</v>
       </c>
       <c r="P49" s="33" t="n">
         <v>36243</v>
@@ -11794,7 +11782,7 @@
         <v>98</v>
       </c>
       <c r="U49" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V49" s="33"/>
       <c r="W49" s="33"/>
@@ -11808,7 +11796,7 @@
       <c r="AE49" s="32"/>
       <c r="AF49" s="32"/>
       <c r="AG49" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AH49" s="33" t="s">
         <v>98</v>
@@ -11824,13 +11812,13 @@
         <v>98</v>
       </c>
       <c r="AM49" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN49" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO49" s="32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AP49" s="32" t="s">
         <v>109</v>
@@ -11906,10 +11894,10 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="K50" s="32" t="s">
         <v>474</v>
-      </c>
-      <c r="K50" s="32" t="s">
-        <v>475</v>
       </c>
       <c r="L50" s="32" t="s">
         <v>128</v>
@@ -11918,10 +11906,10 @@
         <v>249</v>
       </c>
       <c r="N50" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="O50" s="32" t="s">
         <v>476</v>
-      </c>
-      <c r="O50" s="32" t="s">
-        <v>477</v>
       </c>
       <c r="P50" s="33" t="n">
         <v>34162</v>
@@ -11939,16 +11927,16 @@
         <v>98</v>
       </c>
       <c r="U50" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W50" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X50" s="32" t="s">
         <v>479</v>
-      </c>
-      <c r="X50" s="32" t="s">
-        <v>480</v>
       </c>
       <c r="Y50" s="33" t="n">
         <v>45613</v>
@@ -11957,43 +11945,43 @@
         <v>102</v>
       </c>
       <c r="AA50" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC50" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AH50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI50" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="AJ50" s="32" t="s">
         <v>483</v>
-      </c>
-      <c r="AJ50" s="32" t="s">
-        <v>484</v>
       </c>
       <c r="AK50" s="33" t="n">
         <v>45658</v>
       </c>
       <c r="AL50" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AM50" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN50" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO50" s="32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AP50" s="32" t="s">
         <v>109</v>
@@ -12069,10 +12057,10 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="K51" s="32" t="s">
         <v>486</v>
-      </c>
-      <c r="K51" s="32" t="s">
-        <v>487</v>
       </c>
       <c r="L51" s="32" t="s">
         <v>128</v>
@@ -12081,10 +12069,10 @@
         <v>249</v>
       </c>
       <c r="N51" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="O51" s="32" t="s">
         <v>488</v>
-      </c>
-      <c r="O51" s="32" t="s">
-        <v>489</v>
       </c>
       <c r="P51" s="33" t="n">
         <v>27249</v>
@@ -12102,7 +12090,7 @@
         <v>98</v>
       </c>
       <c r="U51" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="V51" s="33"/>
       <c r="W51" s="33"/>
@@ -12116,31 +12104,31 @@
       <c r="AE51" s="32"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="32" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AH51" s="33" t="s">
         <v>98</v>
       </c>
       <c r="AI51" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="AJ51" s="32" t="s">
         <v>490</v>
-      </c>
-      <c r="AJ51" s="32" t="s">
-        <v>491</v>
       </c>
       <c r="AK51" s="33" t="n">
         <v>45659</v>
       </c>
       <c r="AL51" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AM51" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN51" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO51" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AP51" s="32" t="s">
         <v>109</v>
@@ -12216,10 +12204,10 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="K52" s="32" t="s">
         <v>493</v>
-      </c>
-      <c r="K52" s="32" t="s">
-        <v>494</v>
       </c>
       <c r="L52" s="32" t="s">
         <v>128</v>
@@ -12228,10 +12216,10 @@
         <v>256</v>
       </c>
       <c r="N52" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="O52" s="32" t="s">
         <v>495</v>
-      </c>
-      <c r="O52" s="32" t="s">
-        <v>496</v>
       </c>
       <c r="P52" s="33" t="n">
         <v>37104</v>
@@ -12249,16 +12237,16 @@
         <v>98</v>
       </c>
       <c r="U52" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V52" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W52" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="X52" s="32" t="s">
         <v>498</v>
-      </c>
-      <c r="X52" s="32" t="s">
-        <v>499</v>
       </c>
       <c r="Y52" s="33" t="n">
         <v>45613</v>
@@ -12267,7 +12255,7 @@
         <v>271</v>
       </c>
       <c r="AA52" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AB52" s="33" t="n">
         <v>45614</v>
@@ -12279,31 +12267,31 @@
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AH52" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AI52" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="AJ52" s="32" t="s">
         <v>501</v>
-      </c>
-      <c r="AJ52" s="32" t="s">
-        <v>502</v>
       </c>
       <c r="AK52" s="33" t="n">
         <v>45660</v>
       </c>
       <c r="AL52" s="32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AM52" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN52" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO52" s="32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AP52" s="32" t="s">
         <v>109</v>
@@ -12379,22 +12367,22 @@
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="K53" s="32" t="s">
         <v>504</v>
-      </c>
-      <c r="K53" s="32" t="s">
-        <v>505</v>
       </c>
       <c r="L53" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M53" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="N53" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="O53" s="32" t="s">
         <v>506</v>
-      </c>
-      <c r="N53" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="O53" s="32" t="s">
-        <v>507</v>
       </c>
       <c r="P53" s="33" t="n">
         <v>34929</v>
@@ -12412,22 +12400,22 @@
         <v>98</v>
       </c>
       <c r="U53" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W53" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="X53" s="32" t="s">
         <v>508</v>
-      </c>
-      <c r="X53" s="32" t="s">
-        <v>509</v>
       </c>
       <c r="Y53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="Z53" s="33" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AA53" s="32"/>
       <c r="AB53" s="33"/>
@@ -12436,7 +12424,7 @@
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH53" s="33" t="n">
         <v>45610</v>
@@ -12445,7 +12433,7 @@
         <v>168</v>
       </c>
       <c r="AJ53" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK53" s="33" t="n">
         <v>45661</v>
@@ -12454,13 +12442,13 @@
         <v>168</v>
       </c>
       <c r="AM53" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN53" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO53" s="32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AP53" s="32" t="s">
         <v>109</v>
@@ -12536,10 +12524,10 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
       <c r="J54" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="K54" s="32" t="s">
         <v>512</v>
-      </c>
-      <c r="K54" s="32" t="s">
-        <v>513</v>
       </c>
       <c r="L54" s="32" t="s">
         <v>128</v>
@@ -12551,7 +12539,7 @@
         <v>331</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P54" s="33" t="n">
         <v>29741</v>
@@ -12569,7 +12557,7 @@
         <v>98</v>
       </c>
       <c r="U54" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V54" s="33" t="n">
         <v>45612</v>
@@ -12578,7 +12566,7 @@
         <v>320</v>
       </c>
       <c r="X54" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y54" s="33" t="n">
         <v>45613</v>
@@ -12587,43 +12575,43 @@
         <v>309</v>
       </c>
       <c r="AA54" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB54" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC54" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH54" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI54" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AJ54" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK54" s="33" t="n">
         <v>45662</v>
       </c>
       <c r="AL54" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AM54" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN54" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO54" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AP54" s="32" t="s">
         <v>109</v>
@@ -12699,10 +12687,10 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
       <c r="J55" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="K55" s="32" t="s">
         <v>520</v>
-      </c>
-      <c r="K55" s="32" t="s">
-        <v>521</v>
       </c>
       <c r="L55" s="32" t="s">
         <v>128</v>
@@ -12711,10 +12699,10 @@
         <v>303</v>
       </c>
       <c r="N55" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="O55" s="32" t="s">
         <v>522</v>
-      </c>
-      <c r="O55" s="32" t="s">
-        <v>523</v>
       </c>
       <c r="P55" s="33" t="n">
         <v>31350</v>
@@ -12732,7 +12720,7 @@
         <v>98</v>
       </c>
       <c r="U55" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V55" s="33" t="n">
         <v>45612</v>
@@ -12741,7 +12729,7 @@
         <v>320</v>
       </c>
       <c r="X55" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y55" s="33" t="n">
         <v>45613</v>
@@ -12750,43 +12738,43 @@
         <v>309</v>
       </c>
       <c r="AA55" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB55" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC55" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH55" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI55" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AJ55" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK55" s="33" t="n">
         <v>45663</v>
       </c>
       <c r="AL55" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AM55" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN55" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO55" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AP55" s="32" t="s">
         <v>109</v>
@@ -12862,10 +12850,10 @@
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="K56" s="32" t="s">
         <v>526</v>
-      </c>
-      <c r="K56" s="32" t="s">
-        <v>527</v>
       </c>
       <c r="L56" s="32" t="s">
         <v>128</v>
@@ -12877,7 +12865,7 @@
         <v>331</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P56" s="33" t="n">
         <v>25535</v>
@@ -12895,7 +12883,7 @@
         <v>98</v>
       </c>
       <c r="U56" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V56" s="33" t="n">
         <v>45612</v>
@@ -12904,7 +12892,7 @@
         <v>320</v>
       </c>
       <c r="X56" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y56" s="33" t="n">
         <v>45613</v>
@@ -12913,43 +12901,43 @@
         <v>309</v>
       </c>
       <c r="AA56" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB56" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC56" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH56" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI56" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AJ56" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK56" s="33" t="n">
         <v>45664</v>
       </c>
       <c r="AL56" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AM56" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN56" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO56" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AP56" s="32" t="s">
         <v>109</v>
@@ -13025,10 +13013,10 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32" t="s">
+        <v>530</v>
+      </c>
+      <c r="K57" s="32" t="s">
         <v>531</v>
-      </c>
-      <c r="K57" s="32" t="s">
-        <v>532</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>128</v>
@@ -13040,7 +13028,7 @@
         <v>344</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P57" s="33" t="n">
         <v>32349</v>
@@ -13058,7 +13046,7 @@
         <v>98</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V57" s="33" t="n">
         <v>45612</v>
@@ -13067,7 +13055,7 @@
         <v>320</v>
       </c>
       <c r="X57" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y57" s="33" t="n">
         <v>45613</v>
@@ -13076,43 +13064,43 @@
         <v>309</v>
       </c>
       <c r="AA57" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB57" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC57" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH57" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI57" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ57" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK57" s="33" t="n">
         <v>45665</v>
       </c>
       <c r="AL57" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM57" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN57" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO57" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AP57" s="32" t="s">
         <v>109</v>
@@ -13188,10 +13176,10 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
       <c r="J58" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="K58" s="32" t="s">
         <v>536</v>
-      </c>
-      <c r="K58" s="32" t="s">
-        <v>537</v>
       </c>
       <c r="L58" s="32" t="s">
         <v>92</v>
@@ -13203,7 +13191,7 @@
         <v>186</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P58" s="33" t="n">
         <v>28254</v>
@@ -13221,7 +13209,7 @@
         <v>98</v>
       </c>
       <c r="U58" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V58" s="33" t="n">
         <v>45612</v>
@@ -13230,7 +13218,7 @@
         <v>320</v>
       </c>
       <c r="X58" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="Y58" s="33" t="n">
         <v>45613</v>
@@ -13239,43 +13227,43 @@
         <v>309</v>
       </c>
       <c r="AA58" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AB58" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC58" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH58" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI58" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AJ58" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK58" s="33" t="n">
         <v>45666</v>
       </c>
       <c r="AL58" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AM58" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN58" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO58" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AP58" s="32" t="s">
         <v>109</v>
@@ -13351,22 +13339,22 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="K59" s="32" t="s">
         <v>541</v>
-      </c>
-      <c r="K59" s="32" t="s">
-        <v>542</v>
       </c>
       <c r="L59" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M59" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="N59" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="O59" s="32" t="s">
         <v>543</v>
-      </c>
-      <c r="N59" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="O59" s="32" t="s">
-        <v>544</v>
       </c>
       <c r="P59" s="33" t="n">
         <v>30460</v>
@@ -13384,37 +13372,37 @@
         <v>98</v>
       </c>
       <c r="U59" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V59" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W59" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="X59" s="32" t="s">
         <v>545</v>
-      </c>
-      <c r="X59" s="32" t="s">
-        <v>546</v>
       </c>
       <c r="Y59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z59" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA59" s="32" t="s">
         <v>547</v>
-      </c>
-      <c r="AA59" s="32" t="s">
-        <v>548</v>
       </c>
       <c r="AB59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC59" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH59" s="33" t="n">
         <v>45609</v>
@@ -13423,7 +13411,7 @@
         <v>168</v>
       </c>
       <c r="AJ59" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK59" s="33" t="n">
         <v>45667</v>
@@ -13432,13 +13420,13 @@
         <v>168</v>
       </c>
       <c r="AM59" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN59" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO59" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AP59" s="32" t="s">
         <v>109</v>
@@ -13514,22 +13502,22 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="K60" s="32" t="s">
         <v>551</v>
-      </c>
-      <c r="K60" s="32" t="s">
-        <v>552</v>
       </c>
       <c r="L60" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N60" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P60" s="33" t="n">
         <v>34043</v>
@@ -13547,7 +13535,7 @@
         <v>98</v>
       </c>
       <c r="U60" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V60" s="33" t="n">
         <v>45613</v>
@@ -13556,13 +13544,13 @@
         <v>148</v>
       </c>
       <c r="X60" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Y60" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z60" s="33" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA60" s="32"/>
       <c r="AB60" s="33"/>
@@ -13571,7 +13559,7 @@
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH60" s="33" t="n">
         <v>45613</v>
@@ -13580,7 +13568,7 @@
         <v>221</v>
       </c>
       <c r="AJ60" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK60" s="33" t="n">
         <v>45668</v>
@@ -13589,13 +13577,13 @@
         <v>221</v>
       </c>
       <c r="AM60" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN60" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO60" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AP60" s="32" t="s">
         <v>109</v>
@@ -13671,22 +13659,22 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
       <c r="J61" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="K61" s="32" t="s">
         <v>556</v>
-      </c>
-      <c r="K61" s="32" t="s">
-        <v>557</v>
       </c>
       <c r="L61" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P61" s="33" t="n">
         <v>34862</v>
@@ -13704,7 +13692,7 @@
         <v>98</v>
       </c>
       <c r="U61" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V61" s="33" t="n">
         <v>45613</v>
@@ -13713,7 +13701,7 @@
         <v>148</v>
       </c>
       <c r="X61" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="Y61" s="33" t="n">
         <v>45614</v>
@@ -13728,7 +13716,7 @@
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH61" s="33" t="n">
         <v>45614</v>
@@ -13737,7 +13725,7 @@
         <v>252</v>
       </c>
       <c r="AJ61" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK61" s="33" t="n">
         <v>45669</v>
@@ -13746,13 +13734,13 @@
         <v>252</v>
       </c>
       <c r="AM61" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN61" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO61" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AP61" s="32" t="s">
         <v>109</v>
@@ -13828,10 +13816,10 @@
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="K62" s="32" t="s">
         <v>560</v>
-      </c>
-      <c r="K62" s="32" t="s">
-        <v>561</v>
       </c>
       <c r="L62" s="32" t="s">
         <v>128</v>
@@ -13843,7 +13831,7 @@
         <v>219</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="P62" s="33" t="n">
         <v>29744</v>
@@ -13861,16 +13849,16 @@
         <v>98</v>
       </c>
       <c r="U62" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W62" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="X62" s="32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Y62" s="33" t="n">
         <v>45613</v>
@@ -13879,19 +13867,19 @@
         <v>102</v>
       </c>
       <c r="AA62" s="32" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AB62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC62" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH62" s="33" t="n">
         <v>45613</v>
@@ -13900,7 +13888,7 @@
         <v>299</v>
       </c>
       <c r="AJ62" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK62" s="33" t="n">
         <v>45670</v>
@@ -13909,13 +13897,13 @@
         <v>299</v>
       </c>
       <c r="AM62" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN62" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO62" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AP62" s="32" t="s">
         <v>109</v>
@@ -13991,22 +13979,22 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
       <c r="J63" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="K63" s="32" t="s">
         <v>565</v>
-      </c>
-      <c r="K63" s="32" t="s">
-        <v>566</v>
       </c>
       <c r="L63" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M63" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="N63" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="O63" s="32" t="s">
         <v>567</v>
-      </c>
-      <c r="N63" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="O63" s="32" t="s">
-        <v>568</v>
       </c>
       <c r="P63" s="33" t="n">
         <v>26701</v>
@@ -14024,13 +14012,13 @@
         <v>98</v>
       </c>
       <c r="U63" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V63" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W63" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="X63" s="32" t="s">
         <v>310</v>
@@ -14039,7 +14027,7 @@
         <v>45609</v>
       </c>
       <c r="Z63" s="33" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AA63" s="32"/>
       <c r="AB63" s="33"/>
@@ -14048,7 +14036,7 @@
       <c r="AE63" s="32"/>
       <c r="AF63" s="32"/>
       <c r="AG63" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH63" s="33" t="n">
         <v>45609</v>
@@ -14057,7 +14045,7 @@
         <v>340</v>
       </c>
       <c r="AJ63" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK63" s="33" t="n">
         <v>45671</v>
@@ -14066,13 +14054,13 @@
         <v>340</v>
       </c>
       <c r="AM63" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN63" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO63" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AP63" s="32" t="s">
         <v>109</v>
@@ -14148,31 +14136,31 @@
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="K64" s="32" t="s">
         <v>571</v>
-      </c>
-      <c r="K64" s="32" t="s">
-        <v>572</v>
       </c>
       <c r="L64" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N64" s="32" t="s">
         <v>142</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P64" s="33" t="n">
         <v>24200</v>
       </c>
       <c r="Q64" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R64" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S64" s="32" t="s">
         <v>98</v>
@@ -14181,22 +14169,22 @@
         <v>98</v>
       </c>
       <c r="U64" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V64" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W64" s="33" t="s">
+        <v>575</v>
+      </c>
+      <c r="X64" s="32" t="s">
         <v>576</v>
-      </c>
-      <c r="X64" s="32" t="s">
-        <v>577</v>
       </c>
       <c r="Y64" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z64" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA64" s="32"/>
       <c r="AB64" s="33"/>
@@ -14205,7 +14193,7 @@
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH64" s="33" t="n">
         <v>45613</v>
@@ -14214,7 +14202,7 @@
         <v>369</v>
       </c>
       <c r="AJ64" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK64" s="33" t="n">
         <v>45672</v>
@@ -14223,13 +14211,13 @@
         <v>369</v>
       </c>
       <c r="AM64" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN64" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO64" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AP64" s="32" t="s">
         <v>109</v>
@@ -14305,70 +14293,70 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
       <c r="J65" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="K65" s="32" t="s">
         <v>579</v>
-      </c>
-      <c r="K65" s="32" t="s">
-        <v>580</v>
       </c>
       <c r="L65" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M65" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N65" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="O65" s="32" t="s">
         <v>581</v>
-      </c>
-      <c r="O65" s="32" t="s">
-        <v>582</v>
       </c>
       <c r="P65" s="33" t="n">
         <v>29879</v>
       </c>
       <c r="Q65" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R65" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S65" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="T65" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U65" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W65" s="33" t="s">
+        <v>583</v>
+      </c>
+      <c r="X65" s="32" t="s">
         <v>584</v>
-      </c>
-      <c r="X65" s="32" t="s">
-        <v>585</v>
       </c>
       <c r="Y65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z65" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AA65" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AB65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC65" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AD65" s="32"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH65" s="33" t="n">
         <v>45613</v>
@@ -14377,7 +14365,7 @@
         <v>396</v>
       </c>
       <c r="AJ65" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK65" s="33" t="n">
         <v>45673</v>
@@ -14386,13 +14374,13 @@
         <v>396</v>
       </c>
       <c r="AM65" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN65" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO65" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AP65" s="32" t="s">
         <v>109</v>
@@ -14468,28 +14456,28 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="K66" s="32" t="s">
         <v>588</v>
-      </c>
-      <c r="K66" s="32" t="s">
-        <v>589</v>
       </c>
       <c r="L66" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N66" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="O66" s="32" t="s">
         <v>590</v>
-      </c>
-      <c r="O66" s="32" t="s">
-        <v>591</v>
       </c>
       <c r="P66" s="33" t="n">
         <v>28476</v>
       </c>
       <c r="Q66" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="R66" s="32" t="s">
         <v>97</v>
@@ -14501,37 +14489,37 @@
         <v>98</v>
       </c>
       <c r="U66" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V66" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W66" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X66" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Y66" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z66" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AA66" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AB66" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AC66" s="33" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH66" s="33" t="n">
         <v>45614</v>
@@ -14540,7 +14528,7 @@
         <v>401</v>
       </c>
       <c r="AJ66" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK66" s="33" t="n">
         <v>45674</v>
@@ -14549,13 +14537,13 @@
         <v>401</v>
       </c>
       <c r="AM66" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN66" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO66" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP66" s="32" t="s">
         <v>109</v>
@@ -14631,22 +14619,22 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
       <c r="J67" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="K67" s="32" t="s">
         <v>596</v>
-      </c>
-      <c r="K67" s="32" t="s">
-        <v>597</v>
       </c>
       <c r="L67" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M67" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="N67" s="32" t="s">
         <v>598</v>
       </c>
-      <c r="N67" s="32" t="s">
+      <c r="O67" s="32" t="s">
         <v>599</v>
-      </c>
-      <c r="O67" s="32" t="s">
-        <v>600</v>
       </c>
       <c r="P67" s="33" t="n">
         <v>28646</v>
@@ -14664,22 +14652,22 @@
         <v>98</v>
       </c>
       <c r="U67" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V67" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W67" s="33" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="X67" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Y67" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="Z67" s="33" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AA67" s="32"/>
       <c r="AB67" s="33"/>
@@ -14688,7 +14676,7 @@
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH67" s="33" t="n">
         <v>45614</v>
@@ -14697,7 +14685,7 @@
         <v>409</v>
       </c>
       <c r="AJ67" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK67" s="33" t="n">
         <v>45675</v>
@@ -14706,13 +14694,13 @@
         <v>409</v>
       </c>
       <c r="AM67" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN67" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO67" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AP67" s="32" t="s">
         <v>109</v>
@@ -14788,31 +14776,31 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="K68" s="32" t="s">
         <v>604</v>
-      </c>
-      <c r="K68" s="32" t="s">
-        <v>605</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N68" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P68" s="33" t="n">
         <v>34573</v>
       </c>
       <c r="Q68" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R68" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="S68" s="32" t="s">
         <v>98</v>
@@ -14821,22 +14809,22 @@
         <v>98</v>
       </c>
       <c r="U68" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W68" s="33" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="X68" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Y68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z68" s="33" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AA68" s="32"/>
       <c r="AB68" s="33"/>
@@ -14845,31 +14833,31 @@
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI68" s="32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AJ68" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK68" s="33" t="n">
         <v>45676</v>
       </c>
       <c r="AL68" s="32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AM68" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN68" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO68" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AP68" s="32" t="s">
         <v>109</v>
@@ -14945,28 +14933,28 @@
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
       <c r="J69" s="32" t="s">
+        <v>609</v>
+      </c>
+      <c r="K69" s="32" t="s">
         <v>610</v>
-      </c>
-      <c r="K69" s="32" t="s">
-        <v>611</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M69" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="N69" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="O69" s="32" t="s">
         <v>612</v>
-      </c>
-      <c r="N69" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="O69" s="32" t="s">
-        <v>613</v>
       </c>
       <c r="P69" s="33" t="n">
         <v>29004</v>
       </c>
       <c r="Q69" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R69" s="32" t="s">
         <v>96</v>
@@ -14978,67 +14966,67 @@
         <v>97</v>
       </c>
       <c r="U69" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V69" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W69" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="X69" s="32" t="s">
         <v>615</v>
-      </c>
-      <c r="X69" s="32" t="s">
-        <v>616</v>
       </c>
       <c r="Y69" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="Z69" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA69" s="32" t="s">
         <v>617</v>
-      </c>
-      <c r="AA69" s="32" t="s">
-        <v>618</v>
       </c>
       <c r="AB69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC69" s="33" t="s">
+        <v>618</v>
+      </c>
+      <c r="AD69" s="32" t="s">
         <v>619</v>
-      </c>
-      <c r="AD69" s="32" t="s">
-        <v>620</v>
       </c>
       <c r="AE69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AF69" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AG69" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AH69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI69" s="32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AJ69" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AK69" s="33" t="n">
         <v>45677</v>
       </c>
       <c r="AL69" s="32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AM69" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AN69" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO69" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AP69" s="32" t="s">
         <v>109</v>
@@ -15631,8 +15619,8 @@
   </sheetPr>
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W5" activeCellId="0" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15718,7 +15706,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>3</v>
@@ -15727,13 +15715,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>8</v>
@@ -15957,28 +15945,28 @@
         <v>125</v>
       </c>
       <c r="H2" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="J2" s="32" t="s">
         <v>627</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="J2" s="32" t="s">
+      <c r="K2" s="32" t="s">
         <v>628</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>629</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>142</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P2" s="33" t="n">
         <v>36506</v>
@@ -15988,13 +15976,13 @@
       <c r="S2" s="32"/>
       <c r="T2" s="32"/>
       <c r="U2" s="32" t="s">
+        <v>631</v>
+      </c>
+      <c r="V2" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="W2" s="32" t="s">
         <v>633</v>
-      </c>
-      <c r="W2" s="32" t="s">
-        <v>634</v>
       </c>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
@@ -16050,10 +16038,10 @@
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>635</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>636</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>45569</v>
@@ -16071,64 +16059,64 @@
         <v>89</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J3" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="K3" s="32" t="s">
         <v>637</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>638</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>142</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P3" s="33" t="n">
         <v>24829</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
       <c r="T3" s="32"/>
       <c r="U3" s="32" t="s">
-        <v>641</v>
-      </c>
-      <c r="V3" s="49" t="n">
-        <v>45557</v>
+        <v>107</v>
+      </c>
+      <c r="V3" s="33" t="n">
+        <v>45611</v>
       </c>
       <c r="W3" s="32" t="s">
-        <v>642</v>
+        <v>108</v>
       </c>
       <c r="X3" s="32" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Y3" s="33" t="n">
         <v>45557</v>
       </c>
       <c r="Z3" s="32" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AA3" s="32" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AB3" s="49" t="n">
         <v>45557</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>109</v>
@@ -16143,7 +16131,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="32" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI3" s="49" t="n">
         <v>45557</v>
@@ -16152,13 +16140,13 @@
         <v>45558</v>
       </c>
       <c r="AK3" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="AL3" s="32" t="s">
         <v>646</v>
       </c>
-      <c r="AL3" s="32" t="s">
+      <c r="AM3" s="32" t="s">
         <v>647</v>
-      </c>
-      <c r="AM3" s="32" t="s">
-        <v>648</v>
       </c>
       <c r="AN3" s="49" t="n">
         <v>45557</v>
@@ -16167,10 +16155,10 @@
         <v>45558</v>
       </c>
       <c r="AP3" s="32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AQ3" s="32" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AR3" s="32" t="s">
         <v>115</v>
@@ -16182,10 +16170,10 @@
         <v>45558</v>
       </c>
       <c r="AU3" s="32" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AV3" s="32" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AW3" s="32" t="s">
         <v>117</v>
@@ -16224,7 +16212,7 @@
         <v>45557</v>
       </c>
       <c r="BI3" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="BJ3" s="32" t="s">
         <v>263</v>
@@ -16236,7 +16224,7 @@
         <v>45557</v>
       </c>
       <c r="BM3" s="32" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="BN3" s="32" t="s">
         <v>263</v>
@@ -16248,16 +16236,16 @@
         <v>45557</v>
       </c>
       <c r="BQ3" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="BR3" s="32" t="s">
         <v>651</v>
-      </c>
-      <c r="BR3" s="32" t="s">
-        <v>652</v>
       </c>
       <c r="BS3" s="32" t="s">
         <v>122</v>
       </c>
       <c r="BT3" s="32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="BU3" s="49" t="n">
         <v>45557</v>
@@ -16268,10 +16256,10 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>654</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>655</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>45918</v>
@@ -16283,55 +16271,55 @@
         <v>45918</v>
       </c>
       <c r="F4" s="32" t="s">
+        <v>655</v>
+      </c>
+      <c r="G4" s="32" t="s">
         <v>656</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>657</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
+        <v>657</v>
+      </c>
+      <c r="K4" s="32" t="s">
         <v>658</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>659</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M4" s="32" t="s">
+        <v>659</v>
+      </c>
+      <c r="N4" s="32" t="s">
         <v>660</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="O4" s="32" t="s">
         <v>661</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="P4" s="33" t="s">
         <v>662</v>
-      </c>
-      <c r="P4" s="33" t="s">
-        <v>663</v>
       </c>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
       <c r="S4" s="32"/>
       <c r="T4" s="32"/>
       <c r="U4" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="V4" s="49" t="n">
-        <v>45558</v>
+        <v>107</v>
+      </c>
+      <c r="V4" s="33" t="n">
+        <v>45611</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Y4" s="33" t="n">
         <v>45558</v>
       </c>
       <c r="Z4" s="32" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AA4" s="32"/>
       <c r="AB4" s="32"/>
@@ -16381,7 +16369,7 @@
       <c r="BR4" s="32"/>
       <c r="BS4" s="32"/>
       <c r="BT4" s="32" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="BU4" s="32"/>
       <c r="BV4" s="32" t="s">

--- a/ejemplo_carga_masiva.xlsx
+++ b/ejemplo_carga_masiva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ON" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="620">
   <si>
     <t xml:space="preserve">Owner</t>
   </si>
@@ -338,12 +338,12 @@
     <t xml:space="preserve">21:05-01:25</t>
   </si>
   <si>
+    <t xml:space="preserve"> LA91 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 04:32-07:54</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA91 SCL-PUQ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DAP PUQ-WPU</t>
   </si>
   <si>
@@ -428,15 +428,18 @@
     <t xml:space="preserve">00:05-05:40</t>
   </si>
   <si>
+    <t xml:space="preserve">LA8030 GRU-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00-05:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA87 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 11:22-14:49</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA87 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Doble M</t>
   </si>
   <si>
@@ -470,21 +473,12 @@
     <t xml:space="preserve">15:20-20:05</t>
   </si>
   <si>
-    <t xml:space="preserve">LA8030 GRU-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01:00-05:25</t>
+    <t xml:space="preserve"> LA83 SCL-PUQ</t>
   </si>
   <si>
     <t xml:space="preserve"> 09:45-13:12</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA83 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:02</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIN HOTEL</t>
   </si>
   <si>
@@ -527,12 +521,12 @@
     <t xml:space="preserve">10:45-15:00</t>
   </si>
   <si>
+    <t xml:space="preserve">  LA89 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19:46-23:12</t>
   </si>
   <si>
-    <t xml:space="preserve">  LA89 SCL-PUQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:00-12:03+1</t>
   </si>
   <si>
@@ -554,18 +548,15 @@
     <t xml:space="preserve">R6749494</t>
   </si>
   <si>
-    <t xml:space="preserve">QR523 GOX-DOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04:10-05:55</t>
+    <t xml:space="preserve">QR507 TRV-DOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:35-06:35</t>
   </si>
   <si>
     <t xml:space="preserve"> 04:32-07:56</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:04</t>
-  </si>
-  <si>
     <t xml:space="preserve">NORMAL</t>
   </si>
   <si>
@@ -587,18 +578,9 @@
     <t xml:space="preserve">R6000426</t>
   </si>
   <si>
-    <t xml:space="preserve">QR507 TRV-DOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03:50-06:20</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 04:32-07:55</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:05</t>
-  </si>
-  <si>
     <t xml:space="preserve">VEGANO</t>
   </si>
   <si>
@@ -617,18 +599,12 @@
     <t xml:space="preserve">S0221595</t>
   </si>
   <si>
-    <t xml:space="preserve">03:40-05:35</t>
+    <t xml:space="preserve">  LA91 SCL-PUQ</t>
   </si>
   <si>
     <t xml:space="preserve"> 11:22-14:50</t>
   </si>
   <si>
-    <t xml:space="preserve">  LA91 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:06</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOGA</t>
   </si>
   <si>
@@ -641,7 +617,7 @@
     <t xml:space="preserve">Z7947570</t>
   </si>
   <si>
-    <t xml:space="preserve">21:50-23:20</t>
+    <t xml:space="preserve">14:55-16:25</t>
   </si>
   <si>
     <t xml:space="preserve">QR779 DOH-GRU</t>
@@ -656,15 +632,12 @@
     <t xml:space="preserve">14:20-18:34</t>
   </si>
   <si>
+    <t xml:space="preserve">  LA95 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 09:45-13:13</t>
   </si>
   <si>
-    <t xml:space="preserve">  LA95 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:07</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCL Almuerzo</t>
   </si>
   <si>
@@ -686,15 +659,12 @@
     <t xml:space="preserve">R0568506</t>
   </si>
   <si>
+    <t xml:space="preserve"> LA95 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19:46-23:13</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA95 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:08</t>
-  </si>
-  <si>
     <t xml:space="preserve">Okusa</t>
   </si>
   <si>
@@ -707,15 +677,9 @@
     <t xml:space="preserve">Z6652416</t>
   </si>
   <si>
-    <t xml:space="preserve">03:20-06:35</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 04:32-07:57</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:09</t>
-  </si>
-  <si>
     <t xml:space="preserve">NORONHA</t>
   </si>
   <si>
@@ -725,9 +689,6 @@
     <t xml:space="preserve">Z3534728</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:10</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAHA</t>
   </si>
   <si>
@@ -740,9 +701,6 @@
     <t xml:space="preserve"> 11:22-14:51</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:11</t>
-  </si>
-  <si>
     <t xml:space="preserve">VELANKOVIL RAJU</t>
   </si>
   <si>
@@ -755,15 +713,9 @@
     <t xml:space="preserve">U2748414</t>
   </si>
   <si>
-    <t xml:space="preserve">03:45-06:00</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 09:45-13:14</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:12</t>
-  </si>
-  <si>
     <t xml:space="preserve">ADNYANA</t>
   </si>
   <si>
@@ -782,9 +734,6 @@
     <t xml:space="preserve"> 19:46-23:14</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:13</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOCCIA</t>
   </si>
   <si>
@@ -800,15 +749,9 @@
     <t xml:space="preserve">YB8173344</t>
   </si>
   <si>
-    <t xml:space="preserve">00:10-04:55</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 04:32-07:58</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:14</t>
-  </si>
-  <si>
     <t xml:space="preserve">DIEGO DE ALMAGRO</t>
   </si>
   <si>
@@ -857,9 +800,6 @@
     <t xml:space="preserve">YC508881</t>
   </si>
   <si>
-    <t xml:space="preserve">14:55-16:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA8115 BCN-GRU</t>
   </si>
   <si>
@@ -869,9 +809,6 @@
     <t xml:space="preserve"> 11:22-14:52</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCL Cena</t>
   </si>
   <si>
@@ -890,15 +827,9 @@
     <t xml:space="preserve">AK0149553</t>
   </si>
   <si>
-    <t xml:space="preserve">01:35-06:35</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 09:45-13:15</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:17</t>
-  </si>
-  <si>
     <t xml:space="preserve">OWIYO</t>
   </si>
   <si>
@@ -908,7 +839,7 @@
     <t xml:space="preserve">AK0450118</t>
   </si>
   <si>
-    <t xml:space="preserve">10:10-11:00</t>
+    <t xml:space="preserve">23:20-04:20+1</t>
   </si>
   <si>
     <t xml:space="preserve">QR1336 NBO-DOH</t>
@@ -923,9 +854,6 @@
     <t xml:space="preserve"> 19:46-23:15</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">AGUSTIN</t>
   </si>
   <si>
@@ -944,9 +872,6 @@
     <t xml:space="preserve">Air France</t>
   </si>
   <si>
-    <t xml:space="preserve">00:55-06:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">AF267 ICN-CDG</t>
   </si>
   <si>
@@ -959,18 +884,15 @@
     <t xml:space="preserve">23:20-09:50</t>
   </si>
   <si>
+    <t xml:space="preserve"> LA295 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 04:32-07:59</t>
   </si>
   <si>
-    <t xml:space="preserve"> LA295 SCL-PUQ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> DAP V5420 PUQ-WPU</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">AREVALO</t>
   </si>
   <si>
@@ -983,12 +905,6 @@
     <t xml:space="preserve">P8676198B</t>
   </si>
   <si>
-    <t xml:space="preserve">23:20-04:20+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:20</t>
-  </si>
-  <si>
     <t xml:space="preserve">BARLAAN</t>
   </si>
   <si>
@@ -1001,12 +917,12 @@
     <t xml:space="preserve">P2684732B</t>
   </si>
   <si>
+    <t xml:space="preserve">LA295 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 11:22-14:53</t>
   </si>
   <si>
-    <t xml:space="preserve">LA295 SCL-PUQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:00-12:21+1</t>
   </si>
   <si>
@@ -1028,9 +944,6 @@
     <t xml:space="preserve"> 09:45-13:16</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:22</t>
-  </si>
-  <si>
     <t xml:space="preserve">GAY-YA</t>
   </si>
   <si>
@@ -1046,9 +959,6 @@
     <t xml:space="preserve"> 19:46-23:16</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:23</t>
-  </si>
-  <si>
     <t xml:space="preserve">GROMIO</t>
   </si>
   <si>
@@ -1064,9 +974,6 @@
     <t xml:space="preserve"> 04:32-08:00</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:24</t>
-  </si>
-  <si>
     <t xml:space="preserve">HULLANA</t>
   </si>
   <si>
@@ -1079,9 +986,6 @@
     <t xml:space="preserve">P9305879B</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:25</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAURENTE</t>
   </si>
   <si>
@@ -1094,9 +998,6 @@
     <t xml:space="preserve"> 11:22-14:54</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:26</t>
-  </si>
-  <si>
     <t xml:space="preserve">MACAPOBRE</t>
   </si>
   <si>
@@ -1109,9 +1010,6 @@
     <t xml:space="preserve"> 09:45-13:17</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:27</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAGDADARO</t>
   </si>
   <si>
@@ -1133,9 +1031,6 @@
     <t xml:space="preserve"> 19:46-23:17</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAVARRETE</t>
   </si>
   <si>
@@ -1148,9 +1043,6 @@
     <t xml:space="preserve">P9262534B</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:29</t>
-  </si>
-  <si>
     <t xml:space="preserve">NUNEZ</t>
   </si>
   <si>
@@ -1163,9 +1055,6 @@
     <t xml:space="preserve">P6075815A</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORFANO</t>
   </si>
   <si>
@@ -1181,9 +1070,6 @@
     <t xml:space="preserve"> 11:22-14:55</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:31</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMSON</t>
   </si>
   <si>
@@ -1196,9 +1082,6 @@
     <t xml:space="preserve"> 09:45-13:18</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:32</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALENCIA</t>
   </si>
   <si>
@@ -1214,9 +1097,6 @@
     <t xml:space="preserve"> 19:46-23:18</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:33</t>
-  </si>
-  <si>
     <t xml:space="preserve">VILLA</t>
   </si>
   <si>
@@ -1229,9 +1109,6 @@
     <t xml:space="preserve"> 19:46-23:19</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:34</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORDEI</t>
   </si>
   <si>
@@ -1253,9 +1130,6 @@
     <t xml:space="preserve"> 19:46-23:20</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:35</t>
-  </si>
-  <si>
     <t xml:space="preserve">BENTHOTA DEVAGE</t>
   </si>
   <si>
@@ -1268,162 +1142,159 @@
     <t xml:space="preserve">N11208189</t>
   </si>
   <si>
-    <t xml:space="preserve">20:50-23:25</t>
-  </si>
-  <si>
     <t xml:space="preserve"> LA763 GRU-SCL</t>
   </si>
   <si>
     <t xml:space="preserve"> 11:22-14:56</t>
   </si>
   <si>
+    <t xml:space="preserve">Kenn Borek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-GEAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punta Arenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAMPOUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJ051357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZACHARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM233268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIREILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAQUETTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH152874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEREMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARSOLAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD796812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-FMKB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEPHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAIZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HC369520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN763919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEATCROFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT372499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW876359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURICE PHILIPPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN DE MAELE BELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayak Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F36071497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedition Field Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM8056406</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KL896 PVG-AMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:25-18:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KL701 AMS-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:20-10:50+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA87 SCL-PUQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARTERDAP PUQ-WPU</t>
+  </si>
+  <si>
     <t xml:space="preserve">10:00-12:36</t>
   </si>
   <si>
-    <t xml:space="preserve">Kenn Borek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-GEAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punta Arenas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHARLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAMPOUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canadian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJ051357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZACHARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM233268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIREILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAQUETTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enginner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH152874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEREMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARSOLAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD796812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-FMKB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEPHEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAIZER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HC369520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN763919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHEATCROFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT372499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AYDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AW876359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURICE PHILIPPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN DE MAELE BELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayak Guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F36071497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expedition Field Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM8056406</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KL896 PVG-AMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:25-18:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KL701 AMS-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:20-10:50+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA87 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHARTERDAP PUQ-WPU</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAULAK</t>
   </si>
   <si>
@@ -1436,9 +1307,6 @@
     <t xml:space="preserve">R8779096</t>
   </si>
   <si>
-    <t xml:space="preserve"> TBC</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:00-12:37</t>
   </si>
   <si>
@@ -1469,12 +1337,12 @@
     <t xml:space="preserve">21:05-01:25+1</t>
   </si>
   <si>
+    <t xml:space="preserve">LA81 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 04:33-7:57</t>
   </si>
   <si>
-    <t xml:space="preserve">LA81 SCL-PUQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:00-12:38</t>
   </si>
   <si>
@@ -1490,12 +1358,12 @@
     <t xml:space="preserve">C9962742</t>
   </si>
   <si>
+    <t xml:space="preserve">LA303 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19:53-23:19</t>
   </si>
   <si>
-    <t xml:space="preserve">LA303 SCL-PUQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:00-12:39</t>
   </si>
   <si>
@@ -1523,12 +1391,12 @@
     <t xml:space="preserve"> LA8030 GRU-SCL</t>
   </si>
   <si>
+    <t xml:space="preserve">LA83 SCL-PUQ</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 11:17-14:44</t>
   </si>
   <si>
-    <t xml:space="preserve">LA83 SCL-PUQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:00-12:40</t>
   </si>
   <si>
@@ -1637,9 +1505,6 @@
     <t xml:space="preserve">P4521949B</t>
   </si>
   <si>
-    <t xml:space="preserve"> 16:31-21:24</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:00-12:46+1</t>
   </si>
   <si>
@@ -1730,6 +1595,9 @@
     <t xml:space="preserve">17:55-20:00</t>
   </si>
   <si>
+    <t xml:space="preserve"> 19:46-23:22</t>
+  </si>
+  <si>
     <t xml:space="preserve">10:00-12:51</t>
   </si>
   <si>
@@ -1844,9 +1712,6 @@
     <t xml:space="preserve">17:05-19:25</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19:46-23:21</t>
-  </si>
-  <si>
     <t xml:space="preserve">10:00-12:56</t>
   </si>
   <si>
@@ -1884,9 +1749,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 23:35-09:20+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19:46-23:22</t>
   </si>
   <si>
     <t xml:space="preserve">10:00-12:57</t>
@@ -2581,8 +2443,8 @@
   </sheetPr>
   <dimension ref="A1:CH75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM5" activeCellId="0" sqref="AM5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK38" activeCellId="0" sqref="AK38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2604,7 +2466,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="3" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="4" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="1" width="9.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="4" width="14.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="11.82"/>
@@ -2674,7 +2537,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="87" style="9" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3027,17 +2890,17 @@
       <c r="AH2" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ2" s="32" t="s">
         <v>105</v>
-      </c>
-      <c r="AJ2" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="AK2" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL2" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM2" s="32" t="s">
         <v>107</v>
@@ -3223,29 +3086,35 @@
       <c r="Z3" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
+      <c r="AA3" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="33" t="n">
+        <v>45611</v>
+      </c>
+      <c r="AC3" s="33" t="s">
+        <v>136</v>
+      </c>
       <c r="AD3" s="32"/>
       <c r="AE3" s="32"/>
       <c r="AF3" s="32"/>
       <c r="AG3" s="32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AH3" s="33" t="n">
-        <v>45249</v>
-      </c>
-      <c r="AI3" s="32" t="s">
-        <v>135</v>
+        <v>45611</v>
+      </c>
+      <c r="AI3" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="AJ3" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK3" s="33" t="n">
         <v>45611</v>
       </c>
       <c r="AL3" s="32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AM3" s="32" t="s">
         <v>107</v>
@@ -3254,7 +3123,7 @@
         <v>45611</v>
       </c>
       <c r="AO3" s="32" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="AP3" s="32" t="s">
         <v>109</v>
@@ -3278,7 +3147,7 @@
         <v>45611</v>
       </c>
       <c r="AW3" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX3" s="32" t="s">
         <v>116</v>
@@ -3293,7 +3162,7 @@
         <v>45612</v>
       </c>
       <c r="BB3" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC3" s="32" t="s">
         <v>116</v>
@@ -3363,28 +3232,28 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P4" s="33" t="n">
         <v>21685</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="R4" s="32" t="s">
         <v>97</v>
@@ -3396,46 +3265,46 @@
         <v>98</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V4" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W4" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y4" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="Z4" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA4" s="32" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AB4" s="33" t="n">
         <v>45611</v>
       </c>
       <c r="AC4" s="33" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AD4" s="32"/>
       <c r="AE4" s="32"/>
       <c r="AF4" s="32"/>
       <c r="AG4" s="32" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AH4" s="33" t="n">
         <v>45611</v>
       </c>
-      <c r="AI4" s="32" t="s">
-        <v>151</v>
+      <c r="AI4" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="AJ4" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AK4" s="33" t="n">
         <v>45612</v>
@@ -3450,7 +3319,7 @@
         <v>45611</v>
       </c>
       <c r="AO4" s="32" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="AP4" s="32" t="s">
         <v>109</v>
@@ -3465,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="AT4" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU4" s="33"/>
       <c r="AV4" s="33"/>
@@ -3481,7 +3350,7 @@
         <v>45612</v>
       </c>
       <c r="BB4" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BC4" s="32" t="s">
         <v>116</v>
@@ -3551,31 +3420,31 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
       <c r="J5" s="32" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K5" s="32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L5" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M5" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>160</v>
       </c>
       <c r="P5" s="33" t="n">
         <v>24306</v>
       </c>
       <c r="Q5" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="R5" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S5" s="32" t="s">
         <v>97</v>
@@ -3584,61 +3453,61 @@
         <v>98</v>
       </c>
       <c r="U5" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V5" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W5" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X5" s="32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Y5" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z5" s="33" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AA5" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AB5" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AC5" s="33" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AD5" s="32"/>
       <c r="AE5" s="32"/>
       <c r="AF5" s="32"/>
       <c r="AG5" s="32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AH5" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI5" s="32" t="s">
-        <v>168</v>
+      <c r="AI5" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="AJ5" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AK5" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AL5" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM5" s="32" t="s">
         <v>107</v>
       </c>
       <c r="AN5" s="33" t="n">
-        <v>45611</v>
+        <v>45657</v>
       </c>
       <c r="AO5" s="32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AP5" s="32" t="s">
         <v>109</v>
@@ -3662,7 +3531,7 @@
         <v>45611</v>
       </c>
       <c r="AW5" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AX5" s="32" t="s">
         <v>116</v>
@@ -3677,7 +3546,7 @@
         <v>45612</v>
       </c>
       <c r="BB5" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BC5" s="32" t="s">
         <v>116</v>
@@ -3765,22 +3634,22 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L6" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M6" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="O6" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>176</v>
       </c>
       <c r="P6" s="33" t="n">
         <v>28284</v>
@@ -3798,13 +3667,13 @@
         <v>98</v>
       </c>
       <c r="U6" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="V6" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W6" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X6" s="32" t="s">
         <v>101</v>
@@ -3833,17 +3702,17 @@
       <c r="AH6" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI6" s="32" t="s">
-        <v>179</v>
+      <c r="AI6" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ6" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK6" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AL6" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AM6" s="32" t="s">
         <v>107</v>
@@ -3852,7 +3721,7 @@
         <v>45611</v>
       </c>
       <c r="AO6" s="32" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="AP6" s="32" t="s">
         <v>109</v>
@@ -3867,7 +3736,7 @@
         <v>3</v>
       </c>
       <c r="AT6" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU6" s="33" t="n">
         <v>45611</v>
@@ -3889,7 +3758,7 @@
         <v>45612</v>
       </c>
       <c r="BB6" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BC6" s="32" t="s">
         <v>116</v>
@@ -3916,10 +3785,10 @@
       <c r="BO6" s="32"/>
       <c r="BP6" s="33"/>
       <c r="BQ6" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BR6" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BS6" s="33" t="n">
         <v>45580</v>
@@ -3928,7 +3797,7 @@
         <v>45580</v>
       </c>
       <c r="BU6" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="BV6" s="32"/>
       <c r="BW6" s="32"/>
@@ -3968,22 +3837,22 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L7" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P7" s="33" t="n">
         <v>36050</v>
@@ -4001,13 +3870,13 @@
         <v>98</v>
       </c>
       <c r="U7" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V7" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W7" s="33" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="X7" s="32" t="s">
         <v>101</v>
@@ -4036,17 +3905,17 @@
       <c r="AH7" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI7" s="32" t="s">
-        <v>190</v>
+      <c r="AI7" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ7" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK7" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AL7" s="32" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AM7" s="32" t="s">
         <v>107</v>
@@ -4055,7 +3924,7 @@
         <v>45611</v>
       </c>
       <c r="AO7" s="32" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="AP7" s="32" t="s">
         <v>109</v>
@@ -4070,7 +3939,7 @@
         <v>3</v>
       </c>
       <c r="AT7" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU7" s="33" t="n">
         <v>45611</v>
@@ -4092,7 +3961,7 @@
         <v>45612</v>
       </c>
       <c r="BB7" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC7" s="32" t="s">
         <v>116</v>
@@ -4119,10 +3988,10 @@
       <c r="BO7" s="32"/>
       <c r="BP7" s="33"/>
       <c r="BQ7" s="32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="BR7" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BS7" s="33" t="n">
         <v>45580</v>
@@ -4131,7 +4000,7 @@
         <v>45581</v>
       </c>
       <c r="BU7" s="32" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BV7" s="32"/>
       <c r="BW7" s="32"/>
@@ -4171,22 +4040,22 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="32" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="L8" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P8" s="33" t="n">
         <v>35966</v>
@@ -4204,13 +4073,13 @@
         <v>98</v>
       </c>
       <c r="U8" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V8" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W8" s="33" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="X8" s="32" t="s">
         <v>101</v>
@@ -4239,17 +4108,17 @@
       <c r="AH8" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI8" s="32" t="s">
-        <v>199</v>
+      <c r="AI8" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ8" s="32" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AK8" s="33" t="n">
         <v>45616</v>
       </c>
       <c r="AL8" s="32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="AM8" s="32" t="s">
         <v>107</v>
@@ -4258,7 +4127,7 @@
         <v>45611</v>
       </c>
       <c r="AO8" s="32" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="AP8" s="32" t="s">
         <v>109</v>
@@ -4273,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU8" s="33" t="n">
         <v>45611</v>
@@ -4295,7 +4164,7 @@
         <v>45612</v>
       </c>
       <c r="BB8" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC8" s="32" t="s">
         <v>116</v>
@@ -4322,10 +4191,10 @@
       <c r="BO8" s="32"/>
       <c r="BP8" s="33"/>
       <c r="BQ8" s="32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="BR8" s="32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BS8" s="33" t="n">
         <v>45580</v>
@@ -4334,7 +4203,7 @@
         <v>45580</v>
       </c>
       <c r="BU8" s="32" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BV8" s="32"/>
       <c r="BW8" s="32"/>
@@ -4374,22 +4243,22 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L9" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="P9" s="33" t="n">
         <v>33580</v>
@@ -4407,52 +4276,52 @@
         <v>98</v>
       </c>
       <c r="U9" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V9" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="X9" s="32" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Y9" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z9" s="33" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AB9" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC9" s="33" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AD9" s="32"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="32"/>
       <c r="AG9" s="32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AH9" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI9" s="32" t="s">
-        <v>211</v>
+      <c r="AI9" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="AJ9" s="32" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="AK9" s="33" t="n">
         <v>45617</v>
       </c>
       <c r="AL9" s="32" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AM9" s="32" t="s">
         <v>107</v>
@@ -4461,7 +4330,7 @@
         <v>45611</v>
       </c>
       <c r="AO9" s="32" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="AP9" s="32" t="s">
         <v>109</v>
@@ -4485,7 +4354,7 @@
         <v>45611</v>
       </c>
       <c r="AW9" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX9" s="32" t="s">
         <v>114</v>
@@ -4500,7 +4369,7 @@
         <v>45612</v>
       </c>
       <c r="BB9" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC9" s="32" t="s">
         <v>116</v>
@@ -4535,10 +4404,10 @@
         <v>45612</v>
       </c>
       <c r="BQ9" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BR9" s="32" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="BS9" s="33" t="n">
         <v>45580</v>
@@ -4547,7 +4416,7 @@
         <v>45581</v>
       </c>
       <c r="BU9" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="BV9" s="32"/>
       <c r="BW9" s="32"/>
@@ -4558,7 +4427,7 @@
       <c r="CB9" s="32"/>
       <c r="CC9" s="32"/>
       <c r="CD9" s="32" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="CE9" s="35" t="s">
         <v>122</v>
@@ -4570,7 +4439,7 @@
         <v>45545</v>
       </c>
       <c r="CH9" s="32" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4598,22 +4467,22 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L10" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="P10" s="33" t="n">
         <v>34099</v>
@@ -4631,52 +4500,52 @@
         <v>98</v>
       </c>
       <c r="U10" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V10" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="X10" s="32" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Y10" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z10" s="33" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AB10" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC10" s="33" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AD10" s="32"/>
       <c r="AE10" s="32"/>
       <c r="AF10" s="32"/>
       <c r="AG10" s="32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AH10" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI10" s="32" t="s">
-        <v>221</v>
+      <c r="AI10" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="AJ10" s="32" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AK10" s="33" t="n">
         <v>45618</v>
       </c>
       <c r="AL10" s="32" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AM10" s="32" t="s">
         <v>107</v>
@@ -4685,7 +4554,7 @@
         <v>45611</v>
       </c>
       <c r="AO10" s="32" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="AP10" s="32" t="s">
         <v>109</v>
@@ -4709,7 +4578,7 @@
         <v>45611</v>
       </c>
       <c r="AW10" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX10" s="32" t="s">
         <v>116</v>
@@ -4724,7 +4593,7 @@
         <v>45612</v>
       </c>
       <c r="BB10" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC10" s="32" t="s">
         <v>116</v>
@@ -4759,10 +4628,10 @@
         <v>45612</v>
       </c>
       <c r="BQ10" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BR10" s="32" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="BS10" s="33" t="n">
         <v>45578</v>
@@ -4771,7 +4640,7 @@
         <v>45581</v>
       </c>
       <c r="BU10" s="32" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="BV10" s="32"/>
       <c r="BW10" s="32"/>
@@ -4811,22 +4680,22 @@
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
       <c r="J11" s="32" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="L11" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="P11" s="33" t="n">
         <v>34070</v>
@@ -4844,13 +4713,13 @@
         <v>98</v>
       </c>
       <c r="U11" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V11" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="X11" s="32" t="s">
         <v>101</v>
@@ -4879,17 +4748,17 @@
       <c r="AH11" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI11" s="32" t="s">
-        <v>229</v>
+      <c r="AI11" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ11" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK11" s="33" t="n">
         <v>45619</v>
       </c>
       <c r="AL11" s="32" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AM11" s="32" t="s">
         <v>107</v>
@@ -4898,7 +4767,7 @@
         <v>45611</v>
       </c>
       <c r="AO11" s="32" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="AP11" s="32" t="s">
         <v>109</v>
@@ -4913,7 +4782,7 @@
         <v>3</v>
       </c>
       <c r="AT11" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU11" s="33" t="n">
         <v>45611</v>
@@ -4935,7 +4804,7 @@
         <v>45612</v>
       </c>
       <c r="BB11" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC11" s="32" t="s">
         <v>116</v>
@@ -5004,22 +4873,22 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="32" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K12" s="32" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L12" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="P12" s="33" t="n">
         <v>22802</v>
@@ -5037,13 +4906,13 @@
         <v>98</v>
       </c>
       <c r="U12" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V12" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W12" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="X12" s="32" t="s">
         <v>101</v>
@@ -5072,17 +4941,17 @@
       <c r="AH12" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI12" s="32" t="s">
-        <v>179</v>
+      <c r="AI12" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ12" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK12" s="33" t="n">
         <v>45620</v>
       </c>
       <c r="AL12" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AM12" s="32" t="s">
         <v>107</v>
@@ -5091,7 +4960,7 @@
         <v>45611</v>
       </c>
       <c r="AO12" s="32" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="AP12" s="32" t="s">
         <v>109</v>
@@ -5106,7 +4975,7 @@
         <v>3</v>
       </c>
       <c r="AT12" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU12" s="33" t="n">
         <v>45611</v>
@@ -5128,7 +4997,7 @@
         <v>45612</v>
       </c>
       <c r="BB12" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC12" s="32" t="s">
         <v>116</v>
@@ -5197,22 +5066,22 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="L13" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="P13" s="33" t="n">
         <v>32812</v>
@@ -5230,13 +5099,13 @@
         <v>98</v>
       </c>
       <c r="U13" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V13" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>228</v>
+        <v>176</v>
       </c>
       <c r="X13" s="32" t="s">
         <v>101</v>
@@ -5265,17 +5134,17 @@
       <c r="AH13" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI13" s="32" t="s">
-        <v>238</v>
+      <c r="AI13" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ13" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK13" s="33" t="n">
         <v>45621</v>
       </c>
       <c r="AL13" s="32" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="AM13" s="32" t="s">
         <v>107</v>
@@ -5284,7 +5153,7 @@
         <v>45611</v>
       </c>
       <c r="AO13" s="32" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="AP13" s="32" t="s">
         <v>109</v>
@@ -5299,7 +5168,7 @@
         <v>3</v>
       </c>
       <c r="AT13" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU13" s="33" t="n">
         <v>45611</v>
@@ -5321,7 +5190,7 @@
         <v>45612</v>
       </c>
       <c r="BB13" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC13" s="32" t="s">
         <v>116</v>
@@ -5390,22 +5259,22 @@
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="32" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="K14" s="32" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="L14" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="P14" s="33" t="n">
         <v>36449</v>
@@ -5423,13 +5292,13 @@
         <v>98</v>
       </c>
       <c r="U14" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V14" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W14" s="33" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="X14" s="32" t="s">
         <v>101</v>
@@ -5458,17 +5327,17 @@
       <c r="AH14" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI14" s="32" t="s">
-        <v>245</v>
+      <c r="AI14" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ14" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK14" s="33" t="n">
         <v>45622</v>
       </c>
       <c r="AL14" s="32" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="AM14" s="32" t="s">
         <v>107</v>
@@ -5477,7 +5346,7 @@
         <v>45611</v>
       </c>
       <c r="AO14" s="32" t="s">
-        <v>246</v>
+        <v>108</v>
       </c>
       <c r="AP14" s="32" t="s">
         <v>109</v>
@@ -5492,7 +5361,7 @@
         <v>3</v>
       </c>
       <c r="AT14" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU14" s="33" t="n">
         <v>45611</v>
@@ -5514,7 +5383,7 @@
         <v>45612</v>
       </c>
       <c r="BB14" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC14" s="32" t="s">
         <v>116</v>
@@ -5583,22 +5452,22 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="K15" s="32" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L15" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="P15" s="33" t="n">
         <v>31871</v>
@@ -5616,13 +5485,13 @@
         <v>98</v>
       </c>
       <c r="U15" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V15" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="X15" s="32" t="s">
         <v>101</v>
@@ -5651,17 +5520,17 @@
       <c r="AH15" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI15" s="32" t="s">
-        <v>252</v>
+      <c r="AI15" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ15" s="32" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="AK15" s="33" t="n">
         <v>45623</v>
       </c>
       <c r="AL15" s="32" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="AM15" s="32" t="s">
         <v>107</v>
@@ -5670,7 +5539,7 @@
         <v>45611</v>
       </c>
       <c r="AO15" s="32" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="AP15" s="32" t="s">
         <v>109</v>
@@ -5685,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="AT15" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU15" s="33" t="n">
         <v>45611</v>
@@ -5707,7 +5576,7 @@
         <v>45612</v>
       </c>
       <c r="BB15" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC15" s="32" t="s">
         <v>116</v>
@@ -5776,22 +5645,22 @@
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="K16" s="32" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="L16" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="P16" s="33" t="n">
         <v>30938</v>
@@ -5809,13 +5678,13 @@
         <v>98</v>
       </c>
       <c r="U16" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V16" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W16" s="33" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="X16" s="32" t="s">
         <v>101</v>
@@ -5844,17 +5713,17 @@
       <c r="AH16" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI16" s="32" t="s">
-        <v>260</v>
+      <c r="AI16" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ16" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK16" s="33" t="n">
         <v>45624</v>
       </c>
       <c r="AL16" s="32" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="AM16" s="32" t="s">
         <v>107</v>
@@ -5863,7 +5732,7 @@
         <v>45611</v>
       </c>
       <c r="AO16" s="32" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="AP16" s="32" t="s">
         <v>109</v>
@@ -5887,10 +5756,10 @@
         <v>45611</v>
       </c>
       <c r="AW16" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AX16" s="32" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="AY16" s="32" t="s">
         <v>115</v>
@@ -5902,7 +5771,7 @@
         <v>45612</v>
       </c>
       <c r="BB16" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BC16" s="32" t="s">
         <v>116</v>
@@ -5937,10 +5806,10 @@
         <v>45612</v>
       </c>
       <c r="BQ16" s="32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="BR16" s="32" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="BS16" s="33" t="n">
         <v>45577</v>
@@ -5949,7 +5818,7 @@
         <v>45579</v>
       </c>
       <c r="BU16" s="32" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="BV16" s="32"/>
       <c r="BW16" s="32"/>
@@ -5989,28 +5858,28 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="32" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="K17" s="32" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L17" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="P17" s="33" t="n">
         <v>29910</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="R17" s="32" t="s">
         <v>97</v>
@@ -6022,61 +5891,61 @@
         <v>98</v>
       </c>
       <c r="U17" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V17" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W17" s="33" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="X17" s="32" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="Y17" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="Z17" s="33" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AA17" s="32" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AB17" s="33" t="n">
         <v>45611</v>
       </c>
       <c r="AC17" s="33" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AD17" s="32"/>
       <c r="AE17" s="32"/>
       <c r="AF17" s="32"/>
       <c r="AG17" s="32" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AH17" s="33" t="n">
         <v>45611</v>
       </c>
-      <c r="AI17" s="32" t="s">
-        <v>229</v>
+      <c r="AI17" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="AJ17" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AK17" s="33" t="n">
         <v>45625</v>
       </c>
       <c r="AL17" s="32" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AM17" s="32" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AN17" s="33" t="n">
-        <v>45611</v>
+        <v>45292</v>
       </c>
       <c r="AO17" s="32" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="AP17" s="32" t="s">
         <v>109</v>
@@ -6091,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="AT17" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU17" s="33"/>
       <c r="AV17" s="33"/>
@@ -6107,7 +5976,7 @@
         <v>45612</v>
       </c>
       <c r="BB17" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BC17" s="32" t="s">
         <v>116</v>
@@ -6176,22 +6045,22 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="K18" s="32" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="L18" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="N18" s="32" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="P18" s="33" t="n">
         <v>34170</v>
@@ -6209,22 +6078,22 @@
         <v>98</v>
       </c>
       <c r="U18" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V18" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W18" s="33" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
       <c r="X18" s="32" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="Y18" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z18" s="33" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AA18" s="32" t="s">
         <v>103</v>
@@ -6244,26 +6113,26 @@
       <c r="AH18" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI18" s="32" t="s">
-        <v>281</v>
+      <c r="AI18" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ18" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK18" s="33" t="n">
         <v>45626</v>
       </c>
       <c r="AL18" s="32" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="AM18" s="32" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AN18" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO18" s="32" t="s">
-        <v>282</v>
+        <v>108</v>
       </c>
       <c r="AP18" s="32" t="s">
         <v>109</v>
@@ -6287,7 +6156,7 @@
         <v>45611</v>
       </c>
       <c r="AW18" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AX18" s="32" t="s">
         <v>116</v>
@@ -6302,7 +6171,7 @@
         <v>45612</v>
       </c>
       <c r="BB18" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BC18" s="32" t="s">
         <v>116</v>
@@ -6337,10 +6206,10 @@
         <v>45612</v>
       </c>
       <c r="BQ18" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BR18" s="32" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="BS18" s="33" t="n">
         <v>45580</v>
@@ -6349,7 +6218,7 @@
         <v>45581</v>
       </c>
       <c r="BU18" s="32" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BV18" s="32"/>
       <c r="BW18" s="32"/>
@@ -6389,22 +6258,22 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="L19" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="P19" s="33" t="n">
         <v>33625</v>
@@ -6422,13 +6291,13 @@
         <v>98</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V19" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W19" s="33" t="s">
-        <v>289</v>
+        <v>176</v>
       </c>
       <c r="X19" s="32" t="s">
         <v>101</v>
@@ -6457,26 +6326,26 @@
       <c r="AH19" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI19" s="32" t="s">
-        <v>290</v>
+      <c r="AI19" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="AJ19" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK19" s="33" t="n">
         <v>45627</v>
       </c>
       <c r="AL19" s="32" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="AM19" s="32" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AN19" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO19" s="32" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="AP19" s="32" t="s">
         <v>109</v>
@@ -6491,7 +6360,7 @@
         <v>3</v>
       </c>
       <c r="AT19" s="32" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AU19" s="33" t="n">
         <v>45611</v>
@@ -6513,7 +6382,7 @@
         <v>45612</v>
       </c>
       <c r="BB19" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC19" s="32" t="s">
         <v>116</v>
@@ -6540,10 +6409,10 @@
       <c r="BO19" s="32"/>
       <c r="BP19" s="33"/>
       <c r="BQ19" s="32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="BR19" s="32" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="BS19" s="33" t="n">
         <v>45578</v>
@@ -6552,7 +6421,7 @@
         <v>45582</v>
       </c>
       <c r="BU19" s="32" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="BV19" s="32"/>
       <c r="BW19" s="32"/>
@@ -6592,22 +6461,22 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="L20" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="N20" s="32" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="P20" s="33" t="n">
         <v>30524</v>
@@ -6625,58 +6494,58 @@
         <v>97</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V20" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W20" s="33" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="X20" s="32" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="Y20" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z20" s="33" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="AA20" s="32" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AB20" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AC20" s="33" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AD20" s="32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AE20" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AF20" s="32" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="AG20" s="32" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="AH20" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AI20" s="32" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="AJ20" s="32" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AK20" s="33" t="n">
         <v>45628</v>
       </c>
       <c r="AL20" s="32" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="AM20" s="32" t="s">
         <v>107</v>
@@ -6685,7 +6554,7 @@
         <v>45611</v>
       </c>
       <c r="AO20" s="32" t="s">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="AP20" s="32" t="s">
         <v>109</v>
@@ -6709,7 +6578,7 @@
         <v>45611</v>
       </c>
       <c r="AW20" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX20" s="32" t="s">
         <v>116</v>
@@ -6724,7 +6593,7 @@
         <v>45612</v>
       </c>
       <c r="BB20" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC20" s="32" t="s">
         <v>116</v>
@@ -6801,94 +6670,94 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="K21" s="32" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="L21" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="P21" s="33" t="n">
         <v>32102</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R21" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T21" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V21" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W21" s="33" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="X21" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y21" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z21" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA21" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB21" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC21" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD21" s="32"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
       <c r="AG21" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH21" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI21" s="32" t="s">
-        <v>312</v>
+      <c r="AI21" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ21" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK21" s="33" t="n">
         <v>45629</v>
       </c>
       <c r="AL21" s="32" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="AM21" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN21" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO21" s="32" t="s">
-        <v>315</v>
+        <v>108</v>
       </c>
       <c r="AP21" s="32" t="s">
         <v>109</v>
@@ -6912,7 +6781,7 @@
         <v>45611</v>
       </c>
       <c r="AW21" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX21" s="32" t="s">
         <v>116</v>
@@ -6927,7 +6796,7 @@
         <v>45612</v>
       </c>
       <c r="BB21" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC21" s="32" t="s">
         <v>116</v>
@@ -7004,94 +6873,94 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="K22" s="32" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="L22" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M22" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N22" s="32" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="P22" s="33" t="n">
         <v>23801</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R22" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T22" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V22" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W22" s="33" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="X22" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y22" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z22" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA22" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB22" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC22" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
       <c r="AG22" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH22" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI22" s="32" t="s">
-        <v>260</v>
+      <c r="AI22" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ22" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK22" s="33" t="n">
         <v>45630</v>
       </c>
       <c r="AL22" s="32" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="AM22" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN22" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO22" s="32" t="s">
-        <v>321</v>
+        <v>108</v>
       </c>
       <c r="AP22" s="32" t="s">
         <v>109</v>
@@ -7115,7 +6984,7 @@
         <v>45611</v>
       </c>
       <c r="AW22" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX22" s="32" t="s">
         <v>116</v>
@@ -7130,7 +6999,7 @@
         <v>45612</v>
       </c>
       <c r="BB22" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC22" s="32" t="s">
         <v>116</v>
@@ -7207,94 +7076,94 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="L23" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="P23" s="33" t="n">
         <v>31111</v>
       </c>
       <c r="Q23" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R23" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T23" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V23" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W23" s="33" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="X23" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y23" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z23" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA23" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB23" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC23" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD23" s="32"/>
       <c r="AE23" s="32"/>
       <c r="AF23" s="32"/>
       <c r="AG23" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH23" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI23" s="32" t="s">
-        <v>326</v>
+      <c r="AI23" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ23" s="32" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="AK23" s="33" t="n">
         <v>45631</v>
       </c>
       <c r="AL23" s="32" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="AM23" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN23" s="33" t="n">
-        <v>45611</v>
+        <v>45424</v>
       </c>
       <c r="AO23" s="32" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="AP23" s="32" t="s">
         <v>109</v>
@@ -7318,7 +7187,7 @@
         <v>45611</v>
       </c>
       <c r="AW23" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX23" s="32" t="s">
         <v>116</v>
@@ -7333,7 +7202,7 @@
         <v>45612</v>
       </c>
       <c r="BB23" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC23" s="32" t="s">
         <v>116</v>
@@ -7410,94 +7279,94 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="32" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="K24" s="32" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="L24" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M24" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="N24" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="N24" s="32" t="s">
-        <v>331</v>
-      </c>
       <c r="O24" s="32" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="P24" s="33" t="n">
         <v>26145</v>
       </c>
       <c r="Q24" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R24" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T24" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U24" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V24" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W24" s="33" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="X24" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y24" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z24" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA24" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB24" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC24" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD24" s="32"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="32"/>
       <c r="AG24" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH24" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI24" s="32" t="s">
-        <v>334</v>
+      <c r="AI24" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ24" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK24" s="33" t="n">
         <v>45632</v>
       </c>
       <c r="AL24" s="32" t="s">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="AM24" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN24" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO24" s="32" t="s">
-        <v>335</v>
+        <v>108</v>
       </c>
       <c r="AP24" s="32" t="s">
         <v>109</v>
@@ -7521,7 +7390,7 @@
         <v>45611</v>
       </c>
       <c r="AW24" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX24" s="32" t="s">
         <v>116</v>
@@ -7536,7 +7405,7 @@
         <v>45612</v>
       </c>
       <c r="BB24" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC24" s="32" t="s">
         <v>116</v>
@@ -7613,94 +7482,94 @@
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="K25" s="32" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="P25" s="33" t="n">
         <v>24723</v>
       </c>
       <c r="Q25" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R25" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T25" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U25" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V25" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W25" s="33" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="X25" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y25" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z25" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA25" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB25" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC25" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD25" s="32"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="32"/>
       <c r="AG25" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH25" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI25" s="32" t="s">
-        <v>340</v>
+      <c r="AI25" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ25" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK25" s="33" t="n">
         <v>45633</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="AM25" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN25" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO25" s="32" t="s">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="AP25" s="32" t="s">
         <v>109</v>
@@ -7816,94 +7685,94 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="P26" s="33" t="n">
         <v>33951</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R26" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S26" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T26" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U26" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V26" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W26" s="33" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="X26" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y26" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z26" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA26" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB26" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC26" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
       <c r="AG26" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH26" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI26" s="32" t="s">
-        <v>346</v>
+      <c r="AI26" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ26" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK26" s="33" t="n">
         <v>45634</v>
       </c>
       <c r="AL26" s="32" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="AM26" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN26" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO26" s="32" t="s">
-        <v>347</v>
+        <v>108</v>
       </c>
       <c r="AP26" s="32" t="s">
         <v>109</v>
@@ -8019,94 +7888,94 @@
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
       <c r="J27" s="32" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="P27" s="33" t="n">
         <v>29079</v>
       </c>
       <c r="Q27" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R27" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S27" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T27" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U27" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V27" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W27" s="33" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="X27" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y27" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z27" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA27" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB27" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC27" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD27" s="32"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
       <c r="AG27" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH27" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI27" s="32" t="s">
-        <v>312</v>
+      <c r="AI27" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ27" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK27" s="33" t="n">
         <v>45635</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="AM27" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN27" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO27" s="32" t="s">
-        <v>352</v>
+        <v>108</v>
       </c>
       <c r="AP27" s="32" t="s">
         <v>109</v>
@@ -8130,7 +7999,7 @@
         <v>45611</v>
       </c>
       <c r="AW27" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AX27" s="32" t="s">
         <v>116</v>
@@ -8145,7 +8014,7 @@
         <v>45612</v>
       </c>
       <c r="BB27" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BC27" s="32" t="s">
         <v>116</v>
@@ -8222,94 +8091,94 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="32" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M28" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="N28" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="N28" s="32" t="s">
-        <v>331</v>
-      </c>
       <c r="O28" s="32" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="P28" s="33" t="n">
         <v>32882</v>
       </c>
       <c r="Q28" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R28" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S28" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T28" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U28" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V28" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W28" s="33" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="X28" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y28" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z28" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA28" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB28" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC28" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD28" s="32"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
       <c r="AG28" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH28" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI28" s="32" t="s">
-        <v>356</v>
+      <c r="AI28" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ28" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK28" s="33" t="n">
         <v>45636</v>
       </c>
       <c r="AL28" s="32" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="AM28" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN28" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO28" s="32" t="s">
-        <v>357</v>
+        <v>108</v>
       </c>
       <c r="AP28" s="32" t="s">
         <v>109</v>
@@ -8333,7 +8202,7 @@
         <v>45611</v>
       </c>
       <c r="AW28" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX28" s="32" t="s">
         <v>116</v>
@@ -8348,7 +8217,7 @@
         <v>45612</v>
       </c>
       <c r="BB28" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC28" s="32" t="s">
         <v>116</v>
@@ -8425,94 +8294,94 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M29" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="N29" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="N29" s="32" t="s">
-        <v>331</v>
-      </c>
       <c r="O29" s="32" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="P29" s="33" t="n">
         <v>28760</v>
       </c>
       <c r="Q29" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R29" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S29" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T29" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U29" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V29" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W29" s="33" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="X29" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y29" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z29" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA29" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB29" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC29" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD29" s="32"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
       <c r="AG29" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH29" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI29" s="32" t="s">
-        <v>361</v>
+      <c r="AI29" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ29" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK29" s="33" t="n">
         <v>45637</v>
       </c>
       <c r="AL29" s="32" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="AM29" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN29" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO29" s="32" t="s">
-        <v>362</v>
+        <v>108</v>
       </c>
       <c r="AP29" s="32" t="s">
         <v>109</v>
@@ -8536,7 +8405,7 @@
         <v>45611</v>
       </c>
       <c r="AW29" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX29" s="32" t="s">
         <v>116</v>
@@ -8551,7 +8420,7 @@
         <v>45612</v>
       </c>
       <c r="BB29" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC29" s="32" t="s">
         <v>116</v>
@@ -8628,94 +8497,94 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="32" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="L30" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M30" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="P30" s="33" t="n">
         <v>34320</v>
       </c>
       <c r="Q30" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R30" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S30" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T30" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U30" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V30" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W30" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X30" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="X30" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="Y30" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z30" s="33" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AA30" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB30" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC30" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
       <c r="AG30" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH30" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI30" s="32" t="s">
-        <v>369</v>
+      <c r="AI30" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ30" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK30" s="33" t="n">
         <v>45638</v>
       </c>
       <c r="AL30" s="32" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="AM30" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN30" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO30" s="32" t="s">
-        <v>370</v>
+        <v>108</v>
       </c>
       <c r="AP30" s="32" t="s">
         <v>109</v>
@@ -8739,7 +8608,7 @@
         <v>45611</v>
       </c>
       <c r="AW30" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX30" s="32" t="s">
         <v>116</v>
@@ -8754,7 +8623,7 @@
         <v>45612</v>
       </c>
       <c r="BB30" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC30" s="32" t="s">
         <v>116</v>
@@ -8831,94 +8700,94 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="P31" s="33" t="n">
         <v>26215</v>
       </c>
       <c r="Q31" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R31" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S31" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T31" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U31" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V31" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W31" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X31" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="X31" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="Y31" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z31" s="33" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AA31" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB31" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC31" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="32"/>
       <c r="AG31" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH31" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI31" s="32" t="s">
-        <v>346</v>
+      <c r="AI31" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ31" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK31" s="33" t="n">
         <v>45639</v>
       </c>
       <c r="AL31" s="32" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="AM31" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN31" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO31" s="32" t="s">
-        <v>375</v>
+        <v>108</v>
       </c>
       <c r="AP31" s="32" t="s">
         <v>109</v>
@@ -8942,7 +8811,7 @@
         <v>45611</v>
       </c>
       <c r="AW31" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX31" s="32" t="s">
         <v>116</v>
@@ -8957,7 +8826,7 @@
         <v>45612</v>
       </c>
       <c r="BB31" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC31" s="32" t="s">
         <v>116</v>
@@ -9032,94 +8901,94 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
       <c r="J32" s="32" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="P32" s="33" t="n">
         <v>31314</v>
       </c>
       <c r="Q32" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R32" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S32" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T32" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U32" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V32" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W32" s="33" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="X32" s="32" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="Y32" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z32" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA32" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB32" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC32" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD32" s="32"/>
       <c r="AE32" s="32"/>
       <c r="AF32" s="32"/>
       <c r="AG32" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH32" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI32" s="32" t="s">
-        <v>346</v>
+      <c r="AI32" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ32" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK32" s="33" t="n">
         <v>45640</v>
       </c>
       <c r="AL32" s="32" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="AM32" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN32" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO32" s="32" t="s">
-        <v>380</v>
+        <v>108</v>
       </c>
       <c r="AP32" s="32" t="s">
         <v>109</v>
@@ -9233,94 +9102,94 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="32" t="s">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="L33" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="P33" s="33" t="n">
         <v>25038</v>
       </c>
       <c r="Q33" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R33" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S33" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T33" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U33" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V33" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W33" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X33" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="X33" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="Y33" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z33" s="33" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AA33" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB33" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC33" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD33" s="32"/>
       <c r="AE33" s="32"/>
       <c r="AF33" s="32"/>
       <c r="AG33" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH33" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI33" s="32" t="s">
-        <v>385</v>
+      <c r="AI33" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ33" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK33" s="33" t="n">
         <v>45641</v>
       </c>
       <c r="AL33" s="32" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="AM33" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN33" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO33" s="32" t="s">
-        <v>386</v>
+        <v>108</v>
       </c>
       <c r="AP33" s="32" t="s">
         <v>109</v>
@@ -9344,7 +9213,7 @@
         <v>45611</v>
       </c>
       <c r="AW33" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX33" s="32" t="s">
         <v>116</v>
@@ -9359,7 +9228,7 @@
         <v>45612</v>
       </c>
       <c r="BB33" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC33" s="32" t="s">
         <v>116</v>
@@ -9434,94 +9303,94 @@
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="32" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>389</v>
+        <v>351</v>
       </c>
       <c r="P34" s="33" t="n">
         <v>33224</v>
       </c>
       <c r="Q34" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R34" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S34" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T34" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U34" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V34" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W34" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X34" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="X34" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="Y34" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z34" s="33" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AA34" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB34" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC34" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD34" s="32"/>
       <c r="AE34" s="32"/>
       <c r="AF34" s="32"/>
       <c r="AG34" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH34" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI34" s="32" t="s">
-        <v>390</v>
+      <c r="AI34" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ34" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK34" s="33" t="n">
         <v>45642</v>
       </c>
       <c r="AL34" s="32" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="AM34" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN34" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO34" s="32" t="s">
-        <v>391</v>
+        <v>108</v>
       </c>
       <c r="AP34" s="32" t="s">
         <v>109</v>
@@ -9545,7 +9414,7 @@
         <v>45611</v>
       </c>
       <c r="AW34" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX34" s="32" t="s">
         <v>116</v>
@@ -9560,7 +9429,7 @@
         <v>45612</v>
       </c>
       <c r="BB34" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC34" s="32" t="s">
         <v>116</v>
@@ -9635,94 +9504,94 @@
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="32" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="P35" s="33" t="n">
         <v>29482</v>
       </c>
       <c r="Q35" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R35" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S35" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T35" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U35" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V35" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W35" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X35" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="X35" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="Y35" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z35" s="33" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AA35" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB35" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC35" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD35" s="32"/>
       <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH35" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI35" s="32" t="s">
-        <v>396</v>
+      <c r="AI35" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ35" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK35" s="33" t="n">
         <v>45643</v>
       </c>
       <c r="AL35" s="32" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="AM35" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN35" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO35" s="32" t="s">
-        <v>397</v>
+        <v>108</v>
       </c>
       <c r="AP35" s="32" t="s">
         <v>109</v>
@@ -9746,7 +9615,7 @@
         <v>45611</v>
       </c>
       <c r="AW35" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX35" s="32" t="s">
         <v>116</v>
@@ -9761,7 +9630,7 @@
         <v>45612</v>
       </c>
       <c r="BB35" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC35" s="32" t="s">
         <v>116</v>
@@ -9836,94 +9705,94 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="32" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N36" s="32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O36" s="32" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="P36" s="33" t="n">
         <v>28691</v>
       </c>
       <c r="Q36" s="32" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="R36" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S36" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="T36" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U36" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V36" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W36" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="X36" s="32" t="s">
-        <v>367</v>
       </c>
       <c r="Y36" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z36" s="33" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="AA36" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AB36" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC36" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AD36" s="32"/>
       <c r="AE36" s="32"/>
       <c r="AF36" s="32"/>
       <c r="AG36" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH36" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI36" s="32" t="s">
-        <v>401</v>
+      <c r="AI36" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ36" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK36" s="33" t="n">
         <v>45644</v>
       </c>
       <c r="AL36" s="32" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="AM36" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN36" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO36" s="32" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="AP36" s="32" t="s">
         <v>109</v>
@@ -9947,7 +9816,7 @@
         <v>45611</v>
       </c>
       <c r="AW36" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX36" s="32" t="s">
         <v>116</v>
@@ -9962,7 +9831,7 @@
         <v>45612</v>
       </c>
       <c r="BB36" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC36" s="32" t="s">
         <v>116</v>
@@ -10037,31 +9906,31 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="32" t="s">
-        <v>403</v>
+        <v>362</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="P37" s="33" t="n">
         <v>27095</v>
       </c>
       <c r="Q37" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="R37" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S37" s="32" t="s">
         <v>98</v>
@@ -10070,22 +9939,22 @@
         <v>98</v>
       </c>
       <c r="U37" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V37" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W37" s="33" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="X37" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="Y37" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z37" s="33" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="AA37" s="32"/>
       <c r="AB37" s="33"/>
@@ -10094,31 +9963,31 @@
       <c r="AE37" s="32"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="AH37" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI37" s="32" t="s">
-        <v>409</v>
+      <c r="AI37" s="33" t="s">
+        <v>286</v>
       </c>
       <c r="AJ37" s="32" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AK37" s="33" t="n">
         <v>45645</v>
       </c>
       <c r="AL37" s="32" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="AM37" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN37" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO37" s="32" t="s">
-        <v>410</v>
+        <v>108</v>
       </c>
       <c r="AP37" s="32" t="s">
         <v>109</v>
@@ -10142,7 +10011,7 @@
         <v>45611</v>
       </c>
       <c r="AW37" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AX37" s="32" t="s">
         <v>116</v>
@@ -10157,7 +10026,7 @@
         <v>45612</v>
       </c>
       <c r="BB37" s="32" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BC37" s="32" t="s">
         <v>116</v>
@@ -10232,22 +10101,22 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="32" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="N38" s="32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="P38" s="33" t="n">
         <v>33930</v>
@@ -10265,61 +10134,61 @@
         <v>98</v>
       </c>
       <c r="U38" s="32" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="V38" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W38" s="33" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="X38" s="32" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Y38" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="Z38" s="33" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="AA38" s="32" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="AB38" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AC38" s="33" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="AD38" s="32"/>
       <c r="AE38" s="32"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32" t="s">
-        <v>416</v>
+        <v>373</v>
       </c>
       <c r="AH38" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI38" s="32" t="s">
-        <v>417</v>
+      <c r="AI38" s="33" t="s">
+        <v>202</v>
       </c>
       <c r="AJ38" s="32" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AK38" s="33" t="n">
         <v>45646</v>
       </c>
       <c r="AL38" s="32" t="s">
-        <v>417</v>
+        <v>374</v>
       </c>
       <c r="AM38" s="32" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="AN38" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AO38" s="32" t="s">
-        <v>418</v>
+        <v>108</v>
       </c>
       <c r="AP38" s="32" t="s">
         <v>109</v>
@@ -10343,7 +10212,7 @@
         <v>45611</v>
       </c>
       <c r="AW38" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AX38" s="32" t="s">
         <v>116</v>
@@ -10358,7 +10227,7 @@
         <v>45612</v>
       </c>
       <c r="BB38" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BC38" s="32" t="s">
         <v>116</v>
@@ -10412,10 +10281,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="32" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>98</v>
@@ -10427,28 +10296,28 @@
         <v>45579</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="L39" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="P39" s="33" t="n">
         <v>29473</v>
@@ -10541,10 +10410,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>98</v>
@@ -10556,28 +10425,28 @@
         <v>45579</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
       <c r="J40" s="32" t="s">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>427</v>
+        <v>383</v>
       </c>
       <c r="L40" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="N40" s="32" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>429</v>
+        <v>385</v>
       </c>
       <c r="P40" s="33" t="n">
         <v>37026</v>
@@ -10670,10 +10539,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>98</v>
@@ -10685,28 +10554,28 @@
         <v>45579</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32" t="s">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>431</v>
+        <v>387</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="N41" s="32" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>433</v>
+        <v>389</v>
       </c>
       <c r="P41" s="33" t="n">
         <v>37233</v>
@@ -10799,10 +10668,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="32" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>98</v>
@@ -10814,28 +10683,28 @@
         <v>45579</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32" t="s">
-        <v>434</v>
+        <v>390</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="N42" s="32" t="s">
-        <v>436</v>
+        <v>392</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>437</v>
+        <v>393</v>
       </c>
       <c r="P42" s="33" t="n">
         <v>37007</v>
@@ -10928,10 +10797,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="32" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>98</v>
@@ -10943,28 +10812,28 @@
         <v>45579</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>440</v>
+        <v>396</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>441</v>
+        <v>397</v>
       </c>
       <c r="P43" s="33" t="n">
         <v>27674</v>
@@ -11057,10 +10926,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="32" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>98</v>
@@ -11072,28 +10941,28 @@
         <v>45579</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32" t="s">
-        <v>442</v>
+        <v>398</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>443</v>
+        <v>399</v>
       </c>
       <c r="L44" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="N44" s="32" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="P44" s="33" t="n">
         <v>36087</v>
@@ -11186,10 +11055,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="32" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>98</v>
@@ -11201,28 +11070,28 @@
         <v>45579</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32" t="s">
-        <v>439</v>
+        <v>395</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="L45" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>446</v>
+        <v>402</v>
       </c>
       <c r="P45" s="33" t="n">
         <v>32076</v>
@@ -11315,10 +11184,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="32" t="s">
-        <v>419</v>
+        <v>375</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>438</v>
+        <v>394</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>98</v>
@@ -11330,28 +11199,28 @@
         <v>45579</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="32" t="s">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>448</v>
+        <v>404</v>
       </c>
       <c r="L46" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>424</v>
+        <v>380</v>
       </c>
       <c r="N46" s="32" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="P46" s="33" t="n">
         <v>37529</v>
@@ -11447,7 +11316,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>98</v>
@@ -11465,22 +11334,22 @@
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="K47" s="32" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="L47" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>453</v>
+        <v>409</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="O47" s="32" t="s">
-        <v>455</v>
+        <v>411</v>
       </c>
       <c r="P47" s="33" t="n">
         <v>31736</v>
@@ -11574,7 +11443,7 @@
         <v>86</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C48" s="33" t="n">
         <v>45610</v>
@@ -11592,22 +11461,22 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="32" t="s">
-        <v>456</v>
+        <v>412</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>457</v>
+        <v>413</v>
       </c>
       <c r="L48" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>460</v>
+        <v>416</v>
       </c>
       <c r="P48" s="33" t="n">
         <v>33808</v>
@@ -11625,22 +11494,22 @@
         <v>98</v>
       </c>
       <c r="U48" s="32" t="s">
-        <v>461</v>
+        <v>417</v>
       </c>
       <c r="V48" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W48" s="33" t="s">
-        <v>462</v>
+        <v>418</v>
       </c>
       <c r="X48" s="32" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="Y48" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z48" s="33" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="AA48" s="32"/>
       <c r="AB48" s="33"/>
@@ -11649,31 +11518,31 @@
       <c r="AE48" s="32"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32" t="s">
-        <v>463</v>
+        <v>419</v>
       </c>
       <c r="AH48" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI48" s="32" t="s">
-        <v>168</v>
+      <c r="AI48" s="33" t="s">
+        <v>420</v>
       </c>
       <c r="AJ48" s="32" t="s">
-        <v>465</v>
+        <v>421</v>
       </c>
       <c r="AK48" s="33" t="n">
         <v>45656</v>
       </c>
       <c r="AL48" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM48" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN48" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO48" s="32" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AP48" s="32" t="s">
         <v>109</v>
@@ -11731,7 +11600,7 @@
         <v>86</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>98</v>
@@ -11749,22 +11618,22 @@
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
       <c r="J49" s="32" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="L49" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="P49" s="33" t="n">
         <v>36243</v>
@@ -11781,9 +11650,7 @@
       <c r="T49" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="U49" s="32" t="s">
-        <v>471</v>
-      </c>
+      <c r="U49" s="32"/>
       <c r="V49" s="33"/>
       <c r="W49" s="33"/>
       <c r="X49" s="32"/>
@@ -11795,30 +11662,26 @@
       <c r="AD49" s="32"/>
       <c r="AE49" s="32"/>
       <c r="AF49" s="32"/>
-      <c r="AG49" s="32" t="s">
-        <v>471</v>
-      </c>
+      <c r="AG49" s="32"/>
       <c r="AH49" s="33" t="s">
         <v>98</v>
       </c>
       <c r="AI49" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="AJ49" s="32" t="s">
-        <v>116</v>
-      </c>
+      <c r="AJ49" s="32"/>
       <c r="AK49" s="33"/>
       <c r="AL49" s="32" t="s">
         <v>98</v>
       </c>
       <c r="AM49" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN49" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO49" s="32" t="s">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="AP49" s="32" t="s">
         <v>109</v>
@@ -11876,7 +11739,7 @@
         <v>86</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C50" s="33" t="n">
         <v>45614</v>
@@ -11894,22 +11757,22 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="L50" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M50" s="32" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="P50" s="33" t="n">
         <v>34162</v>
@@ -11927,16 +11790,16 @@
         <v>98</v>
       </c>
       <c r="U50" s="32" t="s">
-        <v>477</v>
+        <v>433</v>
       </c>
       <c r="V50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W50" s="33" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="X50" s="32" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="Y50" s="33" t="n">
         <v>45613</v>
@@ -11945,43 +11808,43 @@
         <v>102</v>
       </c>
       <c r="AA50" s="32" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="AB50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC50" s="33" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32" t="s">
-        <v>480</v>
+        <v>436</v>
       </c>
       <c r="AH50" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI50" s="32" t="s">
-        <v>482</v>
+      <c r="AI50" s="33" t="s">
+        <v>437</v>
       </c>
       <c r="AJ50" s="32" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
       <c r="AK50" s="33" t="n">
         <v>45658</v>
       </c>
       <c r="AL50" s="32" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="AM50" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN50" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO50" s="32" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="AP50" s="32" t="s">
         <v>109</v>
@@ -12039,7 +11902,7 @@
         <v>86</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>98</v>
@@ -12057,22 +11920,22 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="L51" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="P51" s="33" t="n">
         <v>27249</v>
@@ -12089,9 +11952,7 @@
       <c r="T51" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="U51" s="32" t="s">
-        <v>471</v>
-      </c>
+      <c r="U51" s="32"/>
       <c r="V51" s="33"/>
       <c r="W51" s="33"/>
       <c r="X51" s="32"/>
@@ -12103,32 +11964,28 @@
       <c r="AD51" s="32"/>
       <c r="AE51" s="32"/>
       <c r="AF51" s="32"/>
-      <c r="AG51" s="32" t="s">
-        <v>471</v>
-      </c>
+      <c r="AG51" s="32"/>
       <c r="AH51" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="AI51" s="32" t="s">
-        <v>489</v>
-      </c>
+      <c r="AI51" s="32"/>
       <c r="AJ51" s="32" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
       <c r="AK51" s="33" t="n">
         <v>45659</v>
       </c>
       <c r="AL51" s="32" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="AM51" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN51" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO51" s="32" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="AP51" s="32" t="s">
         <v>109</v>
@@ -12186,7 +12043,7 @@
         <v>86</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C52" s="33" t="n">
         <v>45614</v>
@@ -12204,22 +12061,22 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="32" t="s">
-        <v>492</v>
+        <v>448</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>493</v>
+        <v>449</v>
       </c>
       <c r="L52" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M52" s="32" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>494</v>
+        <v>450</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>495</v>
+        <v>451</v>
       </c>
       <c r="P52" s="33" t="n">
         <v>37104</v>
@@ -12237,61 +12094,61 @@
         <v>98</v>
       </c>
       <c r="U52" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V52" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W52" s="33" t="s">
-        <v>497</v>
+        <v>453</v>
       </c>
       <c r="X52" s="32" t="s">
-        <v>498</v>
+        <v>454</v>
       </c>
       <c r="Y52" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z52" s="33" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AA52" s="32" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="AB52" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AC52" s="33" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AD52" s="32"/>
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="AH52" s="33" t="n">
         <v>45614</v>
       </c>
-      <c r="AI52" s="32" t="s">
-        <v>500</v>
+      <c r="AI52" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="AJ52" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK52" s="33" t="n">
         <v>45660</v>
       </c>
       <c r="AL52" s="32" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="AM52" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN52" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO52" s="32" t="s">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="AP52" s="32" t="s">
         <v>109</v>
@@ -12349,7 +12206,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C53" s="33" t="n">
         <v>45611</v>
@@ -12367,22 +12224,22 @@
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>504</v>
+        <v>460</v>
       </c>
       <c r="L53" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="P53" s="33" t="n">
         <v>34929</v>
@@ -12400,22 +12257,22 @@
         <v>98</v>
       </c>
       <c r="U53" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W53" s="33" t="s">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="X53" s="32" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="Y53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="Z53" s="33" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="AA53" s="32"/>
       <c r="AB53" s="33"/>
@@ -12424,31 +12281,31 @@
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32" t="s">
-        <v>508</v>
+        <v>464</v>
       </c>
       <c r="AH53" s="33" t="n">
         <v>45610</v>
       </c>
-      <c r="AI53" s="32" t="s">
-        <v>168</v>
+      <c r="AI53" s="33" t="s">
+        <v>465</v>
       </c>
       <c r="AJ53" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK53" s="33" t="n">
         <v>45661</v>
       </c>
       <c r="AL53" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM53" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN53" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO53" s="32" t="s">
-        <v>510</v>
+        <v>466</v>
       </c>
       <c r="AP53" s="32" t="s">
         <v>109</v>
@@ -12506,7 +12363,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C54" s="33" t="n">
         <v>45614</v>
@@ -12524,22 +12381,22 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
       <c r="J54" s="32" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="L54" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M54" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="N54" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="N54" s="32" t="s">
-        <v>331</v>
-      </c>
       <c r="O54" s="32" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="P54" s="33" t="n">
         <v>29741</v>
@@ -12557,61 +12414,61 @@
         <v>98</v>
       </c>
       <c r="U54" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V54" s="33" t="n">
         <v>45612</v>
       </c>
       <c r="W54" s="33" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="X54" s="32" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="Y54" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z54" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA54" s="32" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="AB54" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC54" s="33" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="AH54" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI54" s="32" t="s">
-        <v>517</v>
+      <c r="AI54" s="33" t="s">
+        <v>472</v>
       </c>
       <c r="AJ54" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK54" s="33" t="n">
         <v>45662</v>
       </c>
       <c r="AL54" s="32" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="AM54" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN54" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO54" s="32" t="s">
-        <v>518</v>
+        <v>474</v>
       </c>
       <c r="AP54" s="32" t="s">
         <v>109</v>
@@ -12669,7 +12526,7 @@
         <v>86</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C55" s="33" t="n">
         <v>45614</v>
@@ -12687,22 +12544,22 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
       <c r="J55" s="32" t="s">
-        <v>519</v>
+        <v>475</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>520</v>
+        <v>476</v>
       </c>
       <c r="L55" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="P55" s="33" t="n">
         <v>31350</v>
@@ -12720,61 +12577,61 @@
         <v>98</v>
       </c>
       <c r="U55" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V55" s="33" t="n">
         <v>45612</v>
       </c>
       <c r="W55" s="33" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="X55" s="32" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="Y55" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z55" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA55" s="32" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="AB55" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC55" s="33" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="AH55" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI55" s="32" t="s">
-        <v>523</v>
+      <c r="AI55" s="33" t="s">
+        <v>472</v>
       </c>
       <c r="AJ55" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK55" s="33" t="n">
         <v>45663</v>
       </c>
       <c r="AL55" s="32" t="s">
-        <v>523</v>
+        <v>479</v>
       </c>
       <c r="AM55" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN55" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO55" s="32" t="s">
-        <v>524</v>
+        <v>480</v>
       </c>
       <c r="AP55" s="32" t="s">
         <v>109</v>
@@ -12832,7 +12689,7 @@
         <v>86</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C56" s="33" t="n">
         <v>45614</v>
@@ -12850,22 +12707,22 @@
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="32" t="s">
-        <v>525</v>
+        <v>481</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>526</v>
+        <v>482</v>
       </c>
       <c r="L56" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M56" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="N56" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="N56" s="32" t="s">
-        <v>331</v>
-      </c>
       <c r="O56" s="32" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="P56" s="33" t="n">
         <v>25535</v>
@@ -12883,61 +12740,61 @@
         <v>98</v>
       </c>
       <c r="U56" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V56" s="33" t="n">
         <v>45612</v>
       </c>
       <c r="W56" s="33" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="X56" s="32" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="Y56" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z56" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA56" s="32" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="AB56" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC56" s="33" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="AH56" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI56" s="32" t="s">
-        <v>528</v>
+      <c r="AI56" s="33" t="s">
+        <v>472</v>
       </c>
       <c r="AJ56" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK56" s="33" t="n">
         <v>45664</v>
       </c>
       <c r="AL56" s="32" t="s">
-        <v>528</v>
+        <v>484</v>
       </c>
       <c r="AM56" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN56" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO56" s="32" t="s">
-        <v>529</v>
+        <v>485</v>
       </c>
       <c r="AP56" s="32" t="s">
         <v>109</v>
@@ -12995,7 +12852,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C57" s="33" t="n">
         <v>45614</v>
@@ -13013,22 +12870,22 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N57" s="32" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="P57" s="33" t="n">
         <v>32349</v>
@@ -13046,61 +12903,61 @@
         <v>98</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V57" s="33" t="n">
         <v>45612</v>
       </c>
       <c r="W57" s="33" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="X57" s="32" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="Y57" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z57" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA57" s="32" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="AB57" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC57" s="33" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="AH57" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI57" s="32" t="s">
-        <v>533</v>
+      <c r="AI57" s="33" t="s">
+        <v>472</v>
       </c>
       <c r="AJ57" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK57" s="33" t="n">
         <v>45665</v>
       </c>
       <c r="AL57" s="32" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="AM57" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN57" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO57" s="32" t="s">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="AP57" s="32" t="s">
         <v>109</v>
@@ -13158,7 +13015,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C58" s="33" t="n">
         <v>45614</v>
@@ -13176,22 +13033,22 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
       <c r="J58" s="32" t="s">
-        <v>535</v>
+        <v>491</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="L58" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M58" s="32" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="N58" s="32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="P58" s="33" t="n">
         <v>28254</v>
@@ -13209,61 +13066,61 @@
         <v>98</v>
       </c>
       <c r="U58" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V58" s="33" t="n">
         <v>45612</v>
       </c>
       <c r="W58" s="33" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="X58" s="32" t="s">
-        <v>514</v>
+        <v>470</v>
       </c>
       <c r="Y58" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z58" s="33" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="AA58" s="32" t="s">
-        <v>515</v>
+        <v>471</v>
       </c>
       <c r="AB58" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC58" s="33" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32" t="s">
-        <v>508</v>
+        <v>471</v>
       </c>
       <c r="AH58" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI58" s="32" t="s">
-        <v>538</v>
+      <c r="AI58" s="33" t="s">
+        <v>472</v>
       </c>
       <c r="AJ58" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK58" s="33" t="n">
-        <v>45666</v>
+        <v>45665</v>
       </c>
       <c r="AL58" s="32" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="AM58" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN58" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO58" s="32" t="s">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="AP58" s="32" t="s">
         <v>109</v>
@@ -13321,7 +13178,7 @@
         <v>86</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C59" s="33" t="n">
         <v>45610</v>
@@ -13339,22 +13196,22 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32" t="s">
-        <v>540</v>
+        <v>495</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="L59" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M59" s="32" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="N59" s="32" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>543</v>
+        <v>498</v>
       </c>
       <c r="P59" s="33" t="n">
         <v>30460</v>
@@ -13372,61 +13229,61 @@
         <v>98</v>
       </c>
       <c r="U59" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V59" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W59" s="33" t="s">
-        <v>544</v>
+        <v>499</v>
       </c>
       <c r="X59" s="32" t="s">
-        <v>545</v>
+        <v>500</v>
       </c>
       <c r="Y59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z59" s="33" t="s">
-        <v>546</v>
+        <v>501</v>
       </c>
       <c r="AA59" s="32" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="AB59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC59" s="33" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AH59" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI59" s="32" t="s">
-        <v>168</v>
+      <c r="AI59" s="33" t="s">
+        <v>503</v>
       </c>
       <c r="AJ59" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK59" s="33" t="n">
-        <v>45667</v>
+        <v>45610</v>
       </c>
       <c r="AL59" s="32" t="s">
-        <v>168</v>
+        <v>489</v>
       </c>
       <c r="AM59" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN59" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO59" s="32" t="s">
-        <v>549</v>
+        <v>504</v>
       </c>
       <c r="AP59" s="32" t="s">
         <v>109</v>
@@ -13484,7 +13341,7 @@
         <v>86</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C60" s="33" t="n">
         <v>45614</v>
@@ -13502,22 +13359,22 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32" t="s">
-        <v>550</v>
+        <v>505</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>551</v>
+        <v>506</v>
       </c>
       <c r="L60" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="N60" s="32" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>552</v>
+        <v>507</v>
       </c>
       <c r="P60" s="33" t="n">
         <v>34043</v>
@@ -13535,22 +13392,22 @@
         <v>98</v>
       </c>
       <c r="U60" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V60" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W60" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X60" s="32" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="Y60" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z60" s="33" t="s">
-        <v>553</v>
+        <v>508</v>
       </c>
       <c r="AA60" s="32"/>
       <c r="AB60" s="33"/>
@@ -13559,31 +13416,31 @@
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="AH60" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI60" s="32" t="s">
-        <v>221</v>
+      <c r="AI60" s="33" t="s">
+        <v>508</v>
       </c>
       <c r="AJ60" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK60" s="33" t="n">
-        <v>45668</v>
+        <v>45675</v>
       </c>
       <c r="AL60" s="32" t="s">
-        <v>221</v>
+        <v>489</v>
       </c>
       <c r="AM60" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN60" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO60" s="32" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="AP60" s="32" t="s">
         <v>109</v>
@@ -13641,7 +13498,7 @@
         <v>86</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C61" s="33" t="n">
         <v>45614</v>
@@ -13659,22 +13516,22 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
       <c r="J61" s="32" t="s">
-        <v>555</v>
+        <v>510</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>556</v>
+        <v>511</v>
       </c>
       <c r="L61" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>542</v>
+        <v>497</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>557</v>
+        <v>512</v>
       </c>
       <c r="P61" s="33" t="n">
         <v>34862</v>
@@ -13692,22 +13549,22 @@
         <v>98</v>
       </c>
       <c r="U61" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V61" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W61" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X61" s="32" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="Y61" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="Z61" s="33" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AA61" s="32"/>
       <c r="AB61" s="33"/>
@@ -13716,31 +13573,31 @@
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="AH61" s="33" t="n">
         <v>45614</v>
       </c>
-      <c r="AI61" s="32" t="s">
-        <v>252</v>
+      <c r="AI61" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="AJ61" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK61" s="33" t="n">
-        <v>45669</v>
+        <v>45675</v>
       </c>
       <c r="AL61" s="32" t="s">
-        <v>252</v>
+        <v>368</v>
       </c>
       <c r="AM61" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN61" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO61" s="32" t="s">
-        <v>558</v>
+        <v>513</v>
       </c>
       <c r="AP61" s="32" t="s">
         <v>109</v>
@@ -13798,7 +13655,7 @@
         <v>86</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C62" s="33" t="n">
         <v>45614</v>
@@ -13816,22 +13673,22 @@
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="32" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>560</v>
+        <v>515</v>
       </c>
       <c r="L62" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="N62" s="32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="P62" s="33" t="n">
         <v>29744</v>
@@ -13849,16 +13706,16 @@
         <v>98</v>
       </c>
       <c r="U62" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W62" s="33" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
       <c r="X62" s="32" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="Y62" s="33" t="n">
         <v>45613</v>
@@ -13867,43 +13724,43 @@
         <v>102</v>
       </c>
       <c r="AA62" s="32" t="s">
-        <v>499</v>
+        <v>455</v>
       </c>
       <c r="AB62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC62" s="33" t="s">
-        <v>481</v>
+        <v>437</v>
       </c>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="AH62" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI62" s="32" t="s">
-        <v>299</v>
+      <c r="AI62" s="33" t="s">
+        <v>437</v>
       </c>
       <c r="AJ62" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK62" s="33" t="n">
-        <v>45670</v>
+        <v>45675</v>
       </c>
       <c r="AL62" s="32" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="AM62" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN62" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO62" s="32" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="AP62" s="32" t="s">
         <v>109</v>
@@ -13961,7 +13818,7 @@
         <v>86</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C63" s="33" t="n">
         <v>45610</v>
@@ -13979,31 +13836,31 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
       <c r="J63" s="32" t="s">
-        <v>564</v>
+        <v>519</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>565</v>
+        <v>520</v>
       </c>
       <c r="L63" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>566</v>
+        <v>521</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>567</v>
+        <v>522</v>
       </c>
       <c r="P63" s="33" t="n">
         <v>26701</v>
       </c>
       <c r="Q63" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="R63" s="32" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="S63" s="32" t="s">
         <v>98</v>
@@ -14012,22 +13869,22 @@
         <v>98</v>
       </c>
       <c r="U63" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V63" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W63" s="33" t="s">
-        <v>568</v>
+        <v>523</v>
       </c>
       <c r="X63" s="32" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="Y63" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z63" s="33" t="s">
-        <v>516</v>
+        <v>472</v>
       </c>
       <c r="AA63" s="32"/>
       <c r="AB63" s="33"/>
@@ -14036,31 +13893,31 @@
       <c r="AE63" s="32"/>
       <c r="AF63" s="32"/>
       <c r="AG63" s="32" t="s">
-        <v>508</v>
+        <v>285</v>
       </c>
       <c r="AH63" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI63" s="32" t="s">
-        <v>340</v>
+      <c r="AI63" s="33" t="s">
+        <v>472</v>
       </c>
       <c r="AJ63" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK63" s="33" t="n">
-        <v>45671</v>
+        <v>45610</v>
       </c>
       <c r="AL63" s="32" t="s">
-        <v>340</v>
+        <v>524</v>
       </c>
       <c r="AM63" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN63" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO63" s="32" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="AP63" s="32" t="s">
         <v>109</v>
@@ -14118,7 +13975,7 @@
         <v>86</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C64" s="33" t="n">
         <v>45614</v>
@@ -14136,31 +13993,31 @@
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="32" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="L64" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="N64" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="P64" s="33" t="n">
         <v>24200</v>
       </c>
       <c r="Q64" s="32" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="R64" s="32" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="S64" s="32" t="s">
         <v>98</v>
@@ -14169,22 +14026,22 @@
         <v>98</v>
       </c>
       <c r="U64" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V64" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W64" s="33" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="X64" s="32" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="Y64" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z64" s="33" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="AA64" s="32"/>
       <c r="AB64" s="33"/>
@@ -14193,31 +14050,31 @@
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="AH64" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI64" s="32" t="s">
-        <v>369</v>
+      <c r="AI64" s="33" t="s">
+        <v>420</v>
       </c>
       <c r="AJ64" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK64" s="33" t="n">
-        <v>45672</v>
+        <v>45675</v>
       </c>
       <c r="AL64" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM64" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN64" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO64" s="32" t="s">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="AP64" s="32" t="s">
         <v>109</v>
@@ -14275,7 +14132,7 @@
         <v>86</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C65" s="33" t="n">
         <v>45614</v>
@@ -14293,94 +14150,94 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
       <c r="J65" s="32" t="s">
-        <v>578</v>
+        <v>534</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="L65" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M65" s="32" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
       <c r="P65" s="33" t="n">
         <v>29879</v>
       </c>
       <c r="Q65" s="32" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
       <c r="R65" s="32" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="S65" s="32" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="T65" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U65" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W65" s="33" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
       <c r="X65" s="32" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
       <c r="Y65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z65" s="33" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="AA65" s="32" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="AB65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC65" s="33" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="AD65" s="32"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="AH65" s="33" t="n">
         <v>45613</v>
       </c>
-      <c r="AI65" s="32" t="s">
-        <v>396</v>
+      <c r="AI65" s="33" t="s">
+        <v>420</v>
       </c>
       <c r="AJ65" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK65" s="33" t="n">
-        <v>45673</v>
+        <v>45675</v>
       </c>
       <c r="AL65" s="32" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
       <c r="AM65" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN65" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO65" s="32" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="AP65" s="32" t="s">
         <v>109</v>
@@ -14438,7 +14295,7 @@
         <v>86</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C66" s="33" t="n">
         <v>45614</v>
@@ -14456,28 +14313,28 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>588</v>
+        <v>544</v>
       </c>
       <c r="L66" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="P66" s="33" t="n">
         <v>28476</v>
       </c>
       <c r="Q66" s="32" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
       <c r="R66" s="32" t="s">
         <v>97</v>
@@ -14489,61 +14346,61 @@
         <v>98</v>
       </c>
       <c r="U66" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V66" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W66" s="33" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="X66" s="32" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
       <c r="Y66" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z66" s="33" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="AA66" s="32" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="AB66" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AC66" s="33" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="AH66" s="33" t="n">
         <v>45614</v>
       </c>
-      <c r="AI66" s="32" t="s">
-        <v>401</v>
+      <c r="AI66" s="33" t="s">
+        <v>549</v>
       </c>
       <c r="AJ66" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK66" s="33" t="n">
-        <v>45674</v>
+        <v>45675</v>
       </c>
       <c r="AL66" s="32" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="AM66" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN66" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO66" s="32" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="AP66" s="32" t="s">
         <v>109</v>
@@ -14601,7 +14458,7 @@
         <v>86</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C67" s="33" t="n">
         <v>45614</v>
@@ -14619,22 +14476,22 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
       <c r="J67" s="32" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
       <c r="L67" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M67" s="32" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="P67" s="33" t="n">
         <v>28646</v>
@@ -14652,22 +14509,22 @@
         <v>98</v>
       </c>
       <c r="U67" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V67" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W67" s="33" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="X67" s="32" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
       <c r="Y67" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="Z67" s="33" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
       <c r="AA67" s="32"/>
       <c r="AB67" s="33"/>
@@ -14676,31 +14533,31 @@
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="AH67" s="33" t="n">
         <v>45614</v>
       </c>
-      <c r="AI67" s="32" t="s">
-        <v>409</v>
+      <c r="AI67" s="33" t="s">
+        <v>557</v>
       </c>
       <c r="AJ67" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK67" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL67" s="32" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="AM67" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN67" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO67" s="32" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
       <c r="AP67" s="32" t="s">
         <v>109</v>
@@ -14758,7 +14615,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C68" s="33" t="n">
         <v>45610</v>
@@ -14776,31 +14633,31 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32" t="s">
-        <v>603</v>
+        <v>559</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="N68" s="32" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="P68" s="33" t="n">
         <v>34573</v>
       </c>
       <c r="Q68" s="32" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="R68" s="32" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="S68" s="32" t="s">
         <v>98</v>
@@ -14809,22 +14666,22 @@
         <v>98</v>
       </c>
       <c r="U68" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W68" s="33" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="X68" s="32" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="Y68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z68" s="33" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="AA68" s="32"/>
       <c r="AB68" s="33"/>
@@ -14833,31 +14690,31 @@
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="AH68" s="33" t="n">
         <v>45609</v>
       </c>
-      <c r="AI68" s="32" t="s">
-        <v>607</v>
+      <c r="AI68" s="33" t="s">
+        <v>420</v>
       </c>
       <c r="AJ68" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK68" s="33" t="n">
-        <v>45676</v>
+        <v>45610</v>
       </c>
       <c r="AL68" s="32" t="s">
-        <v>607</v>
+        <v>524</v>
       </c>
       <c r="AM68" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN68" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO68" s="32" t="s">
-        <v>608</v>
+        <v>563</v>
       </c>
       <c r="AP68" s="32" t="s">
         <v>109</v>
@@ -14915,7 +14772,7 @@
         <v>86</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C69" s="33" t="n">
         <v>45610</v>
@@ -14933,28 +14790,28 @@
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
       <c r="J69" s="32" t="s">
-        <v>609</v>
+        <v>564</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="N69" s="32" t="s">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>612</v>
+        <v>567</v>
       </c>
       <c r="P69" s="33" t="n">
         <v>29004</v>
       </c>
       <c r="Q69" s="32" t="s">
-        <v>613</v>
+        <v>568</v>
       </c>
       <c r="R69" s="32" t="s">
         <v>96</v>
@@ -14966,67 +14823,67 @@
         <v>97</v>
       </c>
       <c r="U69" s="32" t="s">
-        <v>496</v>
+        <v>452</v>
       </c>
       <c r="V69" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W69" s="33" t="s">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="X69" s="32" t="s">
-        <v>615</v>
+        <v>570</v>
       </c>
       <c r="Y69" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="Z69" s="33" t="s">
-        <v>616</v>
+        <v>571</v>
       </c>
       <c r="AA69" s="32" t="s">
-        <v>617</v>
+        <v>572</v>
       </c>
       <c r="AB69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC69" s="33" t="s">
-        <v>618</v>
+        <v>573</v>
       </c>
       <c r="AD69" s="32" t="s">
-        <v>619</v>
+        <v>574</v>
       </c>
       <c r="AE69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AF69" s="32" t="s">
-        <v>620</v>
+        <v>575</v>
       </c>
       <c r="AG69" s="32" t="s">
-        <v>508</v>
+        <v>574</v>
       </c>
       <c r="AH69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI69" s="32" t="s">
-        <v>621</v>
+        <v>575</v>
       </c>
       <c r="AJ69" s="32" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AK69" s="33" t="n">
-        <v>45677</v>
+        <v>45610</v>
       </c>
       <c r="AL69" s="32" t="s">
-        <v>621</v>
+        <v>524</v>
       </c>
       <c r="AM69" s="32" t="s">
-        <v>466</v>
+        <v>422</v>
       </c>
       <c r="AN69" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO69" s="32" t="s">
-        <v>622</v>
+        <v>576</v>
       </c>
       <c r="AP69" s="32" t="s">
         <v>109</v>
@@ -15619,7 +15476,7 @@
   </sheetPr>
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W5" activeCellId="0" sqref="W5"/>
     </sheetView>
   </sheetViews>
@@ -15706,7 +15563,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>623</v>
+        <v>577</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>3</v>
@@ -15715,13 +15572,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>624</v>
+        <v>578</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>625</v>
+        <v>579</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>8</v>
@@ -15945,28 +15802,28 @@
         <v>125</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>626</v>
+        <v>580</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>626</v>
+        <v>580</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>627</v>
+        <v>581</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>628</v>
+        <v>582</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>629</v>
+        <v>583</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>630</v>
+        <v>584</v>
       </c>
       <c r="P2" s="33" t="n">
         <v>36506</v>
@@ -15976,13 +15833,13 @@
       <c r="S2" s="32"/>
       <c r="T2" s="32"/>
       <c r="U2" s="32" t="s">
-        <v>631</v>
+        <v>585</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>632</v>
+        <v>586</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>633</v>
+        <v>587</v>
       </c>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
@@ -16038,10 +15895,10 @@
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>634</v>
+        <v>588</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>635</v>
+        <v>589</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>45569</v>
@@ -16053,40 +15910,40 @@
         <v>45574</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>626</v>
+        <v>580</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>626</v>
+        <v>580</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>636</v>
+        <v>590</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>637</v>
+        <v>591</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>629</v>
+        <v>583</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>638</v>
+        <v>592</v>
       </c>
       <c r="P3" s="33" t="n">
         <v>24829</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>639</v>
+        <v>593</v>
       </c>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
@@ -16101,22 +15958,22 @@
         <v>108</v>
       </c>
       <c r="X3" s="32" t="s">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="Y3" s="33" t="n">
         <v>45557</v>
       </c>
       <c r="Z3" s="32" t="s">
-        <v>641</v>
+        <v>595</v>
       </c>
       <c r="AA3" s="32" t="s">
-        <v>642</v>
+        <v>596</v>
       </c>
       <c r="AB3" s="49" t="n">
         <v>45557</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>643</v>
+        <v>597</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>109</v>
@@ -16131,7 +15988,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="32" t="s">
-        <v>644</v>
+        <v>598</v>
       </c>
       <c r="AI3" s="49" t="n">
         <v>45557</v>
@@ -16140,13 +15997,13 @@
         <v>45558</v>
       </c>
       <c r="AK3" s="32" t="s">
-        <v>645</v>
+        <v>599</v>
       </c>
       <c r="AL3" s="32" t="s">
-        <v>646</v>
+        <v>600</v>
       </c>
       <c r="AM3" s="32" t="s">
-        <v>647</v>
+        <v>601</v>
       </c>
       <c r="AN3" s="49" t="n">
         <v>45557</v>
@@ -16155,10 +16012,10 @@
         <v>45558</v>
       </c>
       <c r="AP3" s="32" t="s">
-        <v>645</v>
+        <v>599</v>
       </c>
       <c r="AQ3" s="32" t="s">
-        <v>648</v>
+        <v>602</v>
       </c>
       <c r="AR3" s="32" t="s">
         <v>115</v>
@@ -16170,10 +16027,10 @@
         <v>45558</v>
       </c>
       <c r="AU3" s="32" t="s">
-        <v>645</v>
+        <v>599</v>
       </c>
       <c r="AV3" s="32" t="s">
-        <v>649</v>
+        <v>603</v>
       </c>
       <c r="AW3" s="32" t="s">
         <v>117</v>
@@ -16200,10 +16057,10 @@
         <v>45557</v>
       </c>
       <c r="BE3" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BF3" s="32" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="BG3" s="49" t="n">
         <v>45557</v>
@@ -16212,10 +16069,10 @@
         <v>45557</v>
       </c>
       <c r="BI3" s="32" t="s">
-        <v>650</v>
+        <v>604</v>
       </c>
       <c r="BJ3" s="32" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="BK3" s="49" t="n">
         <v>45557</v>
@@ -16224,10 +16081,10 @@
         <v>45557</v>
       </c>
       <c r="BM3" s="32" t="s">
-        <v>650</v>
+        <v>604</v>
       </c>
       <c r="BN3" s="32" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="BO3" s="49" t="n">
         <v>45557</v>
@@ -16236,16 +16093,16 @@
         <v>45557</v>
       </c>
       <c r="BQ3" s="32" t="s">
-        <v>650</v>
+        <v>604</v>
       </c>
       <c r="BR3" s="32" t="s">
-        <v>651</v>
+        <v>605</v>
       </c>
       <c r="BS3" s="32" t="s">
         <v>122</v>
       </c>
       <c r="BT3" s="32" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
       <c r="BU3" s="49" t="n">
         <v>45557</v>
@@ -16256,10 +16113,10 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>653</v>
+        <v>607</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>654</v>
+        <v>608</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>45918</v>
@@ -16271,33 +16128,33 @@
         <v>45918</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>655</v>
+        <v>609</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>656</v>
+        <v>610</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
-        <v>657</v>
+        <v>611</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>658</v>
+        <v>612</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>659</v>
+        <v>613</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>660</v>
+        <v>614</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>661</v>
+        <v>615</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>662</v>
+        <v>616</v>
       </c>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
@@ -16310,16 +16167,16 @@
         <v>45611</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>663</v>
+        <v>617</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>640</v>
+        <v>594</v>
       </c>
       <c r="Y4" s="33" t="n">
         <v>45558</v>
       </c>
       <c r="Z4" s="32" t="s">
-        <v>664</v>
+        <v>618</v>
       </c>
       <c r="AA4" s="32"/>
       <c r="AB4" s="32"/>
@@ -16352,7 +16209,7 @@
       <c r="BC4" s="32"/>
       <c r="BD4" s="32"/>
       <c r="BE4" s="32" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="BF4" s="32"/>
       <c r="BG4" s="32"/>
@@ -16369,11 +16226,11 @@
       <c r="BR4" s="32"/>
       <c r="BS4" s="32"/>
       <c r="BT4" s="32" t="s">
-        <v>665</v>
+        <v>619</v>
       </c>
       <c r="BU4" s="32"/>
       <c r="BV4" s="32" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ejemplo_carga_masiva.xlsx
+++ b/ejemplo_carga_masiva.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="600">
   <si>
     <t xml:space="preserve">Owner</t>
   </si>
@@ -1292,7 +1292,7 @@
     <t xml:space="preserve">CHARTERDAP PUQ-WPU</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:36</t>
+    <t xml:space="preserve">10:00-12:57</t>
   </si>
   <si>
     <t xml:space="preserve">NAULAK</t>
@@ -1307,9 +1307,6 @@
     <t xml:space="preserve">R8779096</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:37</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARKANI</t>
   </si>
   <si>
@@ -1343,9 +1340,6 @@
     <t xml:space="preserve"> 04:33-7:57</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:38</t>
-  </si>
-  <si>
     <t xml:space="preserve">PERMANA</t>
   </si>
   <si>
@@ -1364,9 +1358,6 @@
     <t xml:space="preserve"> 19:53-23:19</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:39</t>
-  </si>
-  <si>
     <t xml:space="preserve">BARNABA</t>
   </si>
   <si>
@@ -1397,9 +1388,6 @@
     <t xml:space="preserve"> 11:17-14:44</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:40</t>
-  </si>
-  <si>
     <t xml:space="preserve">GRANT</t>
   </si>
   <si>
@@ -1421,9 +1409,6 @@
     <t xml:space="preserve">19:05-14:10+1</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:41</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALDAY</t>
   </si>
   <si>
@@ -1445,9 +1430,6 @@
     <t xml:space="preserve"> 16:31-21:20</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:42</t>
-  </si>
-  <si>
     <t xml:space="preserve">DELA CRUZ</t>
   </si>
   <si>
@@ -1463,9 +1445,6 @@
     <t xml:space="preserve"> 16:31-21:21</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:43</t>
-  </si>
-  <si>
     <t xml:space="preserve">FELISILDA</t>
   </si>
   <si>
@@ -1478,9 +1457,6 @@
     <t xml:space="preserve"> 16:31-21:22</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:44</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISIDORO</t>
   </si>
   <si>
@@ -1505,9 +1481,6 @@
     <t xml:space="preserve">P4521949B</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:46+1</t>
-  </si>
-  <si>
     <t xml:space="preserve">BREDENKAMP</t>
   </si>
   <si>
@@ -1535,9 +1508,6 @@
     <t xml:space="preserve">18:30-07:00+1</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:47</t>
-  </si>
-  <si>
     <t xml:space="preserve">OOSTHUYSE</t>
   </si>
   <si>
@@ -1550,9 +1520,6 @@
     <t xml:space="preserve">23:50-04:15+1</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:48</t>
-  </si>
-  <si>
     <t xml:space="preserve">THORP</t>
   </si>
   <si>
@@ -1562,9 +1529,6 @@
     <t xml:space="preserve">A10073471</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:49</t>
-  </si>
-  <si>
     <t xml:space="preserve">KUMARA</t>
   </si>
   <si>
@@ -1577,9 +1541,6 @@
     <t xml:space="preserve">03:25-06:00</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:50</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUNDSTROEM</t>
   </si>
   <si>
@@ -1598,9 +1559,6 @@
     <t xml:space="preserve"> 19:46-23:22</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:51</t>
-  </si>
-  <si>
     <t xml:space="preserve">DOMANIN</t>
   </si>
   <si>
@@ -1622,9 +1580,6 @@
     <t xml:space="preserve">KL701 AMS-SCL</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:52</t>
-  </si>
-  <si>
     <t xml:space="preserve">MURTAKOV</t>
   </si>
   <si>
@@ -1649,9 +1604,6 @@
     <t xml:space="preserve">17:25-19:25</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:53+1</t>
-  </si>
-  <si>
     <t xml:space="preserve">SULZHUK</t>
   </si>
   <si>
@@ -1673,9 +1625,6 @@
     <t xml:space="preserve">07:15-11:25</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALLAN</t>
   </si>
   <si>
@@ -1697,9 +1646,6 @@
     <t xml:space="preserve">08:35-13:00</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:55</t>
-  </si>
-  <si>
     <t xml:space="preserve">MELLUISH</t>
   </si>
   <si>
@@ -1712,9 +1658,6 @@
     <t xml:space="preserve">17:05-19:25</t>
   </si>
   <si>
-    <t xml:space="preserve">10:00-12:56</t>
-  </si>
-  <si>
     <t xml:space="preserve">KWIDINI</t>
   </si>
   <si>
@@ -1749,9 +1692,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 23:35-09:20+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:57</t>
   </si>
   <si>
     <t xml:space="preserve">Date First Flight</t>
@@ -2443,8 +2383,8 @@
   </sheetPr>
   <dimension ref="A1:CH75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK38" activeCellId="0" sqref="AK38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG46" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO48" activeCellId="0" sqref="AO48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11681,7 +11621,7 @@
         <v>45615</v>
       </c>
       <c r="AO49" s="32" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="AP49" s="32" t="s">
         <v>109</v>
@@ -11757,10 +11697,10 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="K50" s="32" t="s">
         <v>429</v>
-      </c>
-      <c r="K50" s="32" t="s">
-        <v>430</v>
       </c>
       <c r="L50" s="32" t="s">
         <v>128</v>
@@ -11769,10 +11709,10 @@
         <v>233</v>
       </c>
       <c r="N50" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="O50" s="32" t="s">
         <v>431</v>
-      </c>
-      <c r="O50" s="32" t="s">
-        <v>432</v>
       </c>
       <c r="P50" s="33" t="n">
         <v>34162</v>
@@ -11790,16 +11730,16 @@
         <v>98</v>
       </c>
       <c r="U50" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W50" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="X50" s="32" t="s">
         <v>434</v>
-      </c>
-      <c r="X50" s="32" t="s">
-        <v>435</v>
       </c>
       <c r="Y50" s="33" t="n">
         <v>45613</v>
@@ -11808,34 +11748,34 @@
         <v>102</v>
       </c>
       <c r="AA50" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AB50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC50" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AH50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI50" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="AJ50" s="32" t="s">
         <v>437</v>
-      </c>
-      <c r="AJ50" s="32" t="s">
-        <v>438</v>
       </c>
       <c r="AK50" s="33" t="n">
         <v>45658</v>
       </c>
       <c r="AL50" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AM50" s="32" t="s">
         <v>422</v>
@@ -11844,7 +11784,7 @@
         <v>45615</v>
       </c>
       <c r="AO50" s="32" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="AP50" s="32" t="s">
         <v>109</v>
@@ -11920,10 +11860,10 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L51" s="32" t="s">
         <v>128</v>
@@ -11932,10 +11872,10 @@
         <v>233</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P51" s="33" t="n">
         <v>27249</v>
@@ -11970,13 +11910,13 @@
       </c>
       <c r="AI51" s="32"/>
       <c r="AJ51" s="32" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AK51" s="33" t="n">
         <v>45659</v>
       </c>
       <c r="AL51" s="32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AM51" s="32" t="s">
         <v>422</v>
@@ -11985,7 +11925,7 @@
         <v>45615</v>
       </c>
       <c r="AO51" s="32" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="AP51" s="32" t="s">
         <v>109</v>
@@ -12061,10 +12001,10 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L52" s="32" t="s">
         <v>128</v>
@@ -12073,10 +12013,10 @@
         <v>239</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="P52" s="33" t="n">
         <v>37104</v>
@@ -12094,16 +12034,16 @@
         <v>98</v>
       </c>
       <c r="U52" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V52" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W52" s="33" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="X52" s="32" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Y52" s="33" t="n">
         <v>45613</v>
@@ -12112,7 +12052,7 @@
         <v>252</v>
       </c>
       <c r="AA52" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AB52" s="33" t="n">
         <v>45614</v>
@@ -12124,7 +12064,7 @@
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AH52" s="33" t="n">
         <v>45614</v>
@@ -12133,13 +12073,13 @@
         <v>136</v>
       </c>
       <c r="AJ52" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK52" s="33" t="n">
         <v>45660</v>
       </c>
       <c r="AL52" s="32" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AM52" s="32" t="s">
         <v>422</v>
@@ -12148,7 +12088,7 @@
         <v>45615</v>
       </c>
       <c r="AO52" s="32" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="AP52" s="32" t="s">
         <v>109</v>
@@ -12224,22 +12164,22 @@
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L53" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N53" s="32" t="s">
         <v>415</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P53" s="33" t="n">
         <v>34929</v>
@@ -12257,22 +12197,22 @@
         <v>98</v>
       </c>
       <c r="U53" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W53" s="33" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="X53" s="32" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Y53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="Z53" s="33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AA53" s="32"/>
       <c r="AB53" s="33"/>
@@ -12281,16 +12221,16 @@
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AH53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AI53" s="33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AJ53" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK53" s="33" t="n">
         <v>45661</v>
@@ -12305,7 +12245,7 @@
         <v>45615</v>
       </c>
       <c r="AO53" s="32" t="s">
-        <v>466</v>
+        <v>423</v>
       </c>
       <c r="AP53" s="32" t="s">
         <v>109</v>
@@ -12381,10 +12321,10 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
       <c r="J54" s="32" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="L54" s="32" t="s">
         <v>128</v>
@@ -12396,7 +12336,7 @@
         <v>303</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P54" s="33" t="n">
         <v>29741</v>
@@ -12414,7 +12354,7 @@
         <v>98</v>
       </c>
       <c r="U54" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V54" s="33" t="n">
         <v>45612</v>
@@ -12423,7 +12363,7 @@
         <v>272</v>
       </c>
       <c r="X54" s="32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Y54" s="33" t="n">
         <v>45613</v>
@@ -12432,34 +12372,34 @@
         <v>284</v>
       </c>
       <c r="AA54" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AB54" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC54" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AH54" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI54" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AJ54" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK54" s="33" t="n">
         <v>45662</v>
       </c>
       <c r="AL54" s="32" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AM54" s="32" t="s">
         <v>422</v>
@@ -12468,7 +12408,7 @@
         <v>45615</v>
       </c>
       <c r="AO54" s="32" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="AP54" s="32" t="s">
         <v>109</v>
@@ -12544,10 +12484,10 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
       <c r="J55" s="32" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L55" s="32" t="s">
         <v>128</v>
@@ -12556,10 +12496,10 @@
         <v>279</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="P55" s="33" t="n">
         <v>31350</v>
@@ -12577,7 +12517,7 @@
         <v>98</v>
       </c>
       <c r="U55" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V55" s="33" t="n">
         <v>45612</v>
@@ -12586,7 +12526,7 @@
         <v>272</v>
       </c>
       <c r="X55" s="32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Y55" s="33" t="n">
         <v>45613</v>
@@ -12595,34 +12535,34 @@
         <v>284</v>
       </c>
       <c r="AA55" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AB55" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC55" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AH55" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI55" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AJ55" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK55" s="33" t="n">
         <v>45663</v>
       </c>
       <c r="AL55" s="32" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AM55" s="32" t="s">
         <v>422</v>
@@ -12631,7 +12571,7 @@
         <v>45615</v>
       </c>
       <c r="AO55" s="32" t="s">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="AP55" s="32" t="s">
         <v>109</v>
@@ -12707,10 +12647,10 @@
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="32" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L56" s="32" t="s">
         <v>128</v>
@@ -12722,7 +12662,7 @@
         <v>303</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="P56" s="33" t="n">
         <v>25535</v>
@@ -12740,7 +12680,7 @@
         <v>98</v>
       </c>
       <c r="U56" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V56" s="33" t="n">
         <v>45612</v>
@@ -12749,7 +12689,7 @@
         <v>272</v>
       </c>
       <c r="X56" s="32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Y56" s="33" t="n">
         <v>45613</v>
@@ -12758,34 +12698,34 @@
         <v>284</v>
       </c>
       <c r="AA56" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AB56" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC56" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AH56" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI56" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AJ56" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK56" s="33" t="n">
         <v>45664</v>
       </c>
       <c r="AL56" s="32" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="AM56" s="32" t="s">
         <v>422</v>
@@ -12794,7 +12734,7 @@
         <v>45615</v>
       </c>
       <c r="AO56" s="32" t="s">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="AP56" s="32" t="s">
         <v>109</v>
@@ -12870,10 +12810,10 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>128</v>
@@ -12885,7 +12825,7 @@
         <v>314</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="P57" s="33" t="n">
         <v>32349</v>
@@ -12903,7 +12843,7 @@
         <v>98</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V57" s="33" t="n">
         <v>45612</v>
@@ -12912,7 +12852,7 @@
         <v>272</v>
       </c>
       <c r="X57" s="32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Y57" s="33" t="n">
         <v>45613</v>
@@ -12921,34 +12861,34 @@
         <v>284</v>
       </c>
       <c r="AA57" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AB57" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC57" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AH57" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI57" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AJ57" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK57" s="33" t="n">
         <v>45665</v>
       </c>
       <c r="AL57" s="32" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AM57" s="32" t="s">
         <v>422</v>
@@ -12957,7 +12897,7 @@
         <v>45615</v>
       </c>
       <c r="AO57" s="32" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="AP57" s="32" t="s">
         <v>109</v>
@@ -13033,10 +12973,10 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
       <c r="J58" s="32" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="L58" s="32" t="s">
         <v>92</v>
@@ -13048,7 +12988,7 @@
         <v>183</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="P58" s="33" t="n">
         <v>28254</v>
@@ -13066,7 +13006,7 @@
         <v>98</v>
       </c>
       <c r="U58" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V58" s="33" t="n">
         <v>45612</v>
@@ -13075,7 +13015,7 @@
         <v>272</v>
       </c>
       <c r="X58" s="32" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Y58" s="33" t="n">
         <v>45613</v>
@@ -13084,34 +13024,34 @@
         <v>284</v>
       </c>
       <c r="AA58" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AB58" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC58" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AH58" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI58" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AJ58" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK58" s="33" t="n">
         <v>45665</v>
       </c>
       <c r="AL58" s="32" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AM58" s="32" t="s">
         <v>422</v>
@@ -13120,7 +13060,7 @@
         <v>45615</v>
       </c>
       <c r="AO58" s="32" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="AP58" s="32" t="s">
         <v>109</v>
@@ -13196,22 +13136,22 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L59" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M59" s="32" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="N59" s="32" t="s">
         <v>415</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="P59" s="33" t="n">
         <v>30460</v>
@@ -13229,52 +13169,52 @@
         <v>98</v>
       </c>
       <c r="U59" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V59" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W59" s="33" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="X59" s="32" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="Y59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z59" s="33" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="AA59" s="32" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="AB59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC59" s="33" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="AH59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI59" s="33" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="AJ59" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK59" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL59" s="32" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AM59" s="32" t="s">
         <v>422</v>
@@ -13283,7 +13223,7 @@
         <v>45615</v>
       </c>
       <c r="AO59" s="32" t="s">
-        <v>504</v>
+        <v>423</v>
       </c>
       <c r="AP59" s="32" t="s">
         <v>109</v>
@@ -13359,22 +13299,22 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="L60" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M60" s="32" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="N60" s="32" t="s">
         <v>415</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="P60" s="33" t="n">
         <v>34043</v>
@@ -13392,7 +13332,7 @@
         <v>98</v>
       </c>
       <c r="U60" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V60" s="33" t="n">
         <v>45613</v>
@@ -13401,13 +13341,13 @@
         <v>149</v>
       </c>
       <c r="X60" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Y60" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z60" s="33" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AA60" s="32"/>
       <c r="AB60" s="33"/>
@@ -13416,22 +13356,22 @@
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AH60" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI60" s="33" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="AJ60" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK60" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL60" s="32" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AM60" s="32" t="s">
         <v>422</v>
@@ -13440,7 +13380,7 @@
         <v>45615</v>
       </c>
       <c r="AO60" s="32" t="s">
-        <v>509</v>
+        <v>423</v>
       </c>
       <c r="AP60" s="32" t="s">
         <v>109</v>
@@ -13516,22 +13456,22 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
       <c r="J61" s="32" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="L61" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="N61" s="32" t="s">
         <v>415</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="P61" s="33" t="n">
         <v>34862</v>
@@ -13549,7 +13489,7 @@
         <v>98</v>
       </c>
       <c r="U61" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V61" s="33" t="n">
         <v>45613</v>
@@ -13558,7 +13498,7 @@
         <v>149</v>
       </c>
       <c r="X61" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="Y61" s="33" t="n">
         <v>45614</v>
@@ -13573,7 +13513,7 @@
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AH61" s="33" t="n">
         <v>45614</v>
@@ -13582,7 +13522,7 @@
         <v>136</v>
       </c>
       <c r="AJ61" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK61" s="33" t="n">
         <v>45675</v>
@@ -13597,7 +13537,7 @@
         <v>45615</v>
       </c>
       <c r="AO61" s="32" t="s">
-        <v>513</v>
+        <v>423</v>
       </c>
       <c r="AP61" s="32" t="s">
         <v>109</v>
@@ -13673,10 +13613,10 @@
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="32" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="L62" s="32" t="s">
         <v>128</v>
@@ -13688,7 +13628,7 @@
         <v>210</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="P62" s="33" t="n">
         <v>29744</v>
@@ -13706,16 +13646,16 @@
         <v>98</v>
       </c>
       <c r="U62" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W62" s="33" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="X62" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Y62" s="33" t="n">
         <v>45613</v>
@@ -13724,28 +13664,28 @@
         <v>102</v>
       </c>
       <c r="AA62" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AB62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC62" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AH62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI62" s="33" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AJ62" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK62" s="33" t="n">
         <v>45675</v>
@@ -13760,7 +13700,7 @@
         <v>45615</v>
       </c>
       <c r="AO62" s="32" t="s">
-        <v>518</v>
+        <v>423</v>
       </c>
       <c r="AP62" s="32" t="s">
         <v>109</v>
@@ -13836,22 +13776,22 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
       <c r="J63" s="32" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="L63" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="N63" s="32" t="s">
         <v>415</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="P63" s="33" t="n">
         <v>26701</v>
@@ -13869,13 +13809,13 @@
         <v>98</v>
       </c>
       <c r="U63" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V63" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W63" s="33" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="X63" s="32" t="s">
         <v>285</v>
@@ -13884,7 +13824,7 @@
         <v>45609</v>
       </c>
       <c r="Z63" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AA63" s="32"/>
       <c r="AB63" s="33"/>
@@ -13899,16 +13839,16 @@
         <v>45609</v>
       </c>
       <c r="AI63" s="33" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AJ63" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK63" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL63" s="32" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AM63" s="32" t="s">
         <v>422</v>
@@ -13917,7 +13857,7 @@
         <v>45615</v>
       </c>
       <c r="AO63" s="32" t="s">
-        <v>525</v>
+        <v>423</v>
       </c>
       <c r="AP63" s="32" t="s">
         <v>109</v>
@@ -13993,31 +13933,31 @@
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="32" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="L64" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="N64" s="32" t="s">
         <v>143</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="P64" s="33" t="n">
         <v>24200</v>
       </c>
       <c r="Q64" s="32" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="R64" s="32" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="S64" s="32" t="s">
         <v>98</v>
@@ -14026,16 +13966,16 @@
         <v>98</v>
       </c>
       <c r="U64" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V64" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W64" s="33" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="X64" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="Y64" s="33" t="n">
         <v>45613</v>
@@ -14050,7 +13990,7 @@
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="AH64" s="33" t="n">
         <v>45613</v>
@@ -14059,7 +13999,7 @@
         <v>420</v>
       </c>
       <c r="AJ64" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK64" s="33" t="n">
         <v>45675</v>
@@ -14074,7 +14014,7 @@
         <v>45615</v>
       </c>
       <c r="AO64" s="32" t="s">
-        <v>533</v>
+        <v>423</v>
       </c>
       <c r="AP64" s="32" t="s">
         <v>109</v>
@@ -14150,58 +14090,58 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
       <c r="J65" s="32" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="L65" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M65" s="32" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="P65" s="33" t="n">
         <v>29879</v>
       </c>
       <c r="Q65" s="32" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="R65" s="32" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="S65" s="32" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="T65" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U65" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W65" s="33" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="X65" s="32" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="Y65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z65" s="33" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AA65" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="AB65" s="33" t="n">
         <v>45613</v>
@@ -14213,7 +14153,7 @@
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="AH65" s="33" t="n">
         <v>45613</v>
@@ -14222,7 +14162,7 @@
         <v>420</v>
       </c>
       <c r="AJ65" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK65" s="33" t="n">
         <v>45675</v>
@@ -14237,7 +14177,7 @@
         <v>45615</v>
       </c>
       <c r="AO65" s="32" t="s">
-        <v>542</v>
+        <v>482</v>
       </c>
       <c r="AP65" s="32" t="s">
         <v>109</v>
@@ -14313,28 +14253,28 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="L66" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="P66" s="33" t="n">
         <v>28476</v>
       </c>
       <c r="Q66" s="32" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="R66" s="32" t="s">
         <v>97</v>
@@ -14346,46 +14286,46 @@
         <v>98</v>
       </c>
       <c r="U66" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V66" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W66" s="33" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="X66" s="32" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="Y66" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z66" s="33" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="AA66" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="AB66" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AC66" s="33" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="AH66" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AI66" s="33" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="AJ66" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK66" s="33" t="n">
         <v>45675</v>
@@ -14400,7 +14340,7 @@
         <v>45615</v>
       </c>
       <c r="AO66" s="32" t="s">
-        <v>550</v>
+        <v>423</v>
       </c>
       <c r="AP66" s="32" t="s">
         <v>109</v>
@@ -14476,22 +14416,22 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
       <c r="J67" s="32" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="L67" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M67" s="32" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>554</v>
+        <v>537</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="P67" s="33" t="n">
         <v>28646</v>
@@ -14509,22 +14449,22 @@
         <v>98</v>
       </c>
       <c r="U67" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V67" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W67" s="33" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="X67" s="32" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="Y67" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="Z67" s="33" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="AA67" s="32"/>
       <c r="AB67" s="33"/>
@@ -14533,16 +14473,16 @@
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="AH67" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AI67" s="33" t="s">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="AJ67" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK67" s="33" t="n">
         <v>45675</v>
@@ -14557,7 +14497,7 @@
         <v>45615</v>
       </c>
       <c r="AO67" s="32" t="s">
-        <v>558</v>
+        <v>423</v>
       </c>
       <c r="AP67" s="32" t="s">
         <v>109</v>
@@ -14633,31 +14573,31 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="N68" s="32" t="s">
         <v>415</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="P68" s="33" t="n">
         <v>34573</v>
       </c>
       <c r="Q68" s="32" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="R68" s="32" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="S68" s="32" t="s">
         <v>98</v>
@@ -14666,16 +14606,16 @@
         <v>98</v>
       </c>
       <c r="U68" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W68" s="33" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="X68" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="Y68" s="33" t="n">
         <v>45609</v>
@@ -14690,7 +14630,7 @@
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="AH68" s="33" t="n">
         <v>45609</v>
@@ -14699,13 +14639,13 @@
         <v>420</v>
       </c>
       <c r="AJ68" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK68" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL68" s="32" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AM68" s="32" t="s">
         <v>422</v>
@@ -14714,7 +14654,7 @@
         <v>45615</v>
       </c>
       <c r="AO68" s="32" t="s">
-        <v>563</v>
+        <v>423</v>
       </c>
       <c r="AP68" s="32" t="s">
         <v>109</v>
@@ -14790,28 +14730,28 @@
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
       <c r="J69" s="32" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="N69" s="32" t="s">
         <v>415</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="P69" s="33" t="n">
         <v>29004</v>
       </c>
       <c r="Q69" s="32" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="R69" s="32" t="s">
         <v>96</v>
@@ -14823,58 +14763,58 @@
         <v>97</v>
       </c>
       <c r="U69" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="V69" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W69" s="33" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="X69" s="32" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="Y69" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="Z69" s="33" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="AA69" s="32" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="AB69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC69" s="33" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="AD69" s="32" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="AE69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AF69" s="32" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="AG69" s="32" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="AH69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI69" s="32" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="AJ69" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AK69" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL69" s="32" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="AM69" s="32" t="s">
         <v>422</v>
@@ -14883,7 +14823,7 @@
         <v>45615</v>
       </c>
       <c r="AO69" s="32" t="s">
-        <v>576</v>
+        <v>423</v>
       </c>
       <c r="AP69" s="32" t="s">
         <v>109</v>
@@ -15477,7 +15417,7 @@
   <dimension ref="A1:BV5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W5" activeCellId="0" sqref="W5"/>
+      <selection pane="topLeft" activeCell="W5" activeCellId="1" sqref="AO48 W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15563,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>3</v>
@@ -15572,13 +15512,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>8</v>
@@ -15802,28 +15742,28 @@
         <v>125</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>143</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="P2" s="33" t="n">
         <v>36506</v>
@@ -15833,13 +15773,13 @@
       <c r="S2" s="32"/>
       <c r="T2" s="32"/>
       <c r="U2" s="32" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
@@ -15895,10 +15835,10 @@
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>45569</v>
@@ -15916,34 +15856,34 @@
         <v>89</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>143</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="P3" s="33" t="n">
         <v>24829</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
@@ -15958,22 +15898,22 @@
         <v>108</v>
       </c>
       <c r="X3" s="32" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="Y3" s="33" t="n">
         <v>45557</v>
       </c>
       <c r="Z3" s="32" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="AA3" s="32" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="AB3" s="49" t="n">
         <v>45557</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>109</v>
@@ -15988,7 +15928,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="32" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="AI3" s="49" t="n">
         <v>45557</v>
@@ -15997,13 +15937,13 @@
         <v>45558</v>
       </c>
       <c r="AK3" s="32" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="AL3" s="32" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="AM3" s="32" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="AN3" s="49" t="n">
         <v>45557</v>
@@ -16012,10 +15952,10 @@
         <v>45558</v>
       </c>
       <c r="AP3" s="32" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="AQ3" s="32" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="AR3" s="32" t="s">
         <v>115</v>
@@ -16027,10 +15967,10 @@
         <v>45558</v>
       </c>
       <c r="AU3" s="32" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="AV3" s="32" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="AW3" s="32" t="s">
         <v>117</v>
@@ -16069,7 +16009,7 @@
         <v>45557</v>
       </c>
       <c r="BI3" s="32" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="BJ3" s="32" t="s">
         <v>244</v>
@@ -16081,7 +16021,7 @@
         <v>45557</v>
       </c>
       <c r="BM3" s="32" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="BN3" s="32" t="s">
         <v>244</v>
@@ -16093,16 +16033,16 @@
         <v>45557</v>
       </c>
       <c r="BQ3" s="32" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="BR3" s="32" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="BS3" s="32" t="s">
         <v>122</v>
       </c>
       <c r="BT3" s="32" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="BU3" s="49" t="n">
         <v>45557</v>
@@ -16113,10 +16053,10 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>45918</v>
@@ -16128,33 +16068,33 @@
         <v>45918</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
@@ -16167,16 +16107,16 @@
         <v>45611</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
       <c r="Y4" s="33" t="n">
         <v>45558</v>
       </c>
       <c r="Z4" s="32" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="AA4" s="32"/>
       <c r="AB4" s="32"/>
@@ -16226,7 +16166,7 @@
       <c r="BR4" s="32"/>
       <c r="BS4" s="32"/>
       <c r="BT4" s="32" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="BU4" s="32"/>
       <c r="BV4" s="32" t="s">

--- a/ejemplo_carga_masiva.xlsx
+++ b/ejemplo_carga_masiva.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="592">
   <si>
     <t xml:space="preserve">Owner</t>
   </si>
@@ -941,9 +941,6 @@
     <t xml:space="preserve">23:20-04:20</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09:45-13:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">GAY-YA</t>
   </si>
   <si>
@@ -956,9 +953,6 @@
     <t xml:space="preserve">P1432916C</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19:46-23:16</t>
-  </si>
-  <si>
     <t xml:space="preserve">GROMIO</t>
   </si>
   <si>
@@ -971,9 +965,6 @@
     <t xml:space="preserve">P7119259A</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04:32-08:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">HULLANA</t>
   </si>
   <si>
@@ -995,9 +986,6 @@
     <t xml:space="preserve">P0485411B</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11:22-14:54</t>
-  </si>
-  <si>
     <t xml:space="preserve">MACAPOBRE</t>
   </si>
   <si>
@@ -1028,9 +1016,6 @@
     <t xml:space="preserve">12:05-18:30</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19:46-23:17</t>
-  </si>
-  <si>
     <t xml:space="preserve">NAVARRETE</t>
   </si>
   <si>
@@ -1067,9 +1052,6 @@
     <t xml:space="preserve">P1018528B</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11:22-14:55</t>
-  </si>
-  <si>
     <t xml:space="preserve">SAMSON</t>
   </si>
   <si>
@@ -1094,9 +1076,6 @@
     <t xml:space="preserve">P5248017B</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19:46-23:18</t>
-  </si>
-  <si>
     <t xml:space="preserve">VILLA</t>
   </si>
   <si>
@@ -1106,9 +1085,6 @@
     <t xml:space="preserve">P2366393B</t>
   </si>
   <si>
-    <t xml:space="preserve"> 19:46-23:19</t>
-  </si>
-  <si>
     <t xml:space="preserve">BORDEI</t>
   </si>
   <si>
@@ -1127,406 +1103,406 @@
     <t xml:space="preserve">13:40-15:50</t>
   </si>
   <si>
+    <t xml:space="preserve">BENTHOTA DEVAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UDARA MADUSAKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N11208189</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA763 GRU-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:22-14:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenn Borek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-GEAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punta Arenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAMPOUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJ051357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZACHARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLLINS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AM233268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIREILLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAQUETTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AH152874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEREMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARSOLAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD796812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C-FMKB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEPHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAIZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HC369520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RYAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIENS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HN763919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEATCROFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT372499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW876359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAURICE PHILIPPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN DE MAELE BELLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayak Guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F36071497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedition Field Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM8056406</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KL896 PVG-AMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:25-18:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KL701 AMS-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:20-10:50+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA87 SCL-PUQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARTERDAP PUQ-WPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00-12:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAULAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GINKHUALLIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deck Steward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8779096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARKANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laundry Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E2632958</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QR955 CGK-DOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:20-05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QR773 DOH-GRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA8207 GRU-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21:05-01:25+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA81 SCL-PUQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04:33-7:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERMANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HILMAN JAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expedition Program Coordinator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9962742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA303 SCL-PUQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19:53-23:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARNABA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COSIMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YB6933235</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AZ1620 BDS-FCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:20-07:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA8121 FCO-GRU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA8030 GRU-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA83 SCL-PUQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11:17-14:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HARRY KEITH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT125625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06:00-07:05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> QF3877 AKL-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:05-14:10+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JEROME CARANDANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1809520B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AF267 ICN-CDG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AF406 CDG-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:20-09:50+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:31-21:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELA CRUZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinary Seaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0202311B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:31-21:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELISILDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEMETRIO PELIGRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2827186B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:31-21:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISIDORO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROVAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P6185718A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16:31-21:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00-12:45+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NACARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ESTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4521949B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREDENKAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NICHOLAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M00435465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:10-05:25+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EK201 DXB-JFK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08:30-13:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LA533 JFK-SCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:30-07:00+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OOSTHUYSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JESSICA KAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M00415378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23:50-04:15+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THORP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MATTHEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A10073471</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 19:46-23:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENTHOTA DEVAGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> UDARA MADUSAKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N11208189</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA763 GRU-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11:22-14:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenn Borek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-GEAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Punta Arenas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHARLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAMPOUX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canadian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJ051357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZACHARY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLINS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AM233268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIREILLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAQUETTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enginner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AH152874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEREMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARSOLAIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD796812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C-FMKB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEPHEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAIZER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HC369520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RYAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIENS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HN763919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHEATCROFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT372499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AYDEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AW876359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silver Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAURICE PHILIPPE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAN DE MAELE BELLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayak Guide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F36071497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expedition Field Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM8056406</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KL896 PVG-AMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11:25-18:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> KL701 AMS-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:20-10:50+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA87 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHARTERDAP PUQ-WPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAULAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GINKHUALLIAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deck Steward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8779096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARKANI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ADIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laundry Man</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2632958</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QR955 CGK-DOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:20-05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QR773 DOH-GRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA8207 GRU-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21:05-01:25+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA81 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 04:33-7:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERMANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HILMAN JAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expedition Program Coordinator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9962742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA303 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 19:53-23:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARNABA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COSIMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junior Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YB6933235</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AZ1620 BDS-FCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:20-07:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA8121 FCO-GRU</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA8030 GRU-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA83 SCL-PUQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 11:17-14:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HARRY KEITH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LT125625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06:00-07:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QF3877 AKL-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:05-14:10+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALDAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JEROME CARANDANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1809520B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AF267 ICN-CDG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AF406 CDG-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:20-09:50+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:31-21:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELA CRUZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinary Seaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P0202311B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:31-21:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FELISILDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DEMETRIO PELIGRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2827186B</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:31-21:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISIDORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ROVAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P6185718A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 16:31-21:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10:00-12:45+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NACARIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ESTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4521949B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BREDENKAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NICHOLAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M00435465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:10-05:25+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> EK201 DXB-JFK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:30-13:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LA533 JFK-SCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:30-07:00+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOSTHUYSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JESSICA KAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M00415378</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:50-04:15+1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THORP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MATTHEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A10073471</t>
   </si>
   <si>
     <t xml:space="preserve">KUMARA</t>
@@ -2383,8 +2359,8 @@
   </sheetPr>
   <dimension ref="A1:CH75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG46" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO48" activeCellId="0" sqref="AO48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ38" activeCellId="0" sqref="AJ38:AL38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6888,10 +6864,10 @@
         <v>287</v>
       </c>
       <c r="AK22" s="33" t="n">
-        <v>45630</v>
+        <v>45629</v>
       </c>
       <c r="AL22" s="32" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="AM22" s="32" t="s">
         <v>289</v>
@@ -7291,13 +7267,13 @@
         <v>286</v>
       </c>
       <c r="AJ24" s="32" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AK24" s="33" t="n">
-        <v>45632</v>
+        <v>45631</v>
       </c>
       <c r="AL24" s="32" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="AM24" s="32" t="s">
         <v>289</v>
@@ -7422,10 +7398,10 @@
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K25" s="32" t="s">
         <v>307</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>308</v>
       </c>
       <c r="L25" s="32" t="s">
         <v>92</v>
@@ -7434,10 +7410,10 @@
         <v>279</v>
       </c>
       <c r="N25" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="O25" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="O25" s="32" t="s">
-        <v>310</v>
       </c>
       <c r="P25" s="33" t="n">
         <v>24723</v>
@@ -7494,13 +7470,13 @@
         <v>286</v>
       </c>
       <c r="AJ25" s="32" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AK25" s="33" t="n">
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="AL25" s="32" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="AM25" s="32" t="s">
         <v>289</v>
@@ -7625,10 +7601,10 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K26" s="32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>92</v>
@@ -7637,10 +7613,10 @@
         <v>279</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P26" s="33" t="n">
         <v>33951</v>
@@ -7697,13 +7673,13 @@
         <v>286</v>
       </c>
       <c r="AJ26" s="32" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AK26" s="33" t="n">
-        <v>45634</v>
+        <v>45631</v>
       </c>
       <c r="AL26" s="32" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="AM26" s="32" t="s">
         <v>289</v>
@@ -7828,10 +7804,10 @@
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
       <c r="J27" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K27" s="32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L27" s="32" t="s">
         <v>128</v>
@@ -7840,10 +7816,10 @@
         <v>279</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="P27" s="33" t="n">
         <v>29079</v>
@@ -7900,13 +7876,13 @@
         <v>286</v>
       </c>
       <c r="AJ27" s="32" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AK27" s="33" t="n">
-        <v>45635</v>
+        <v>45631</v>
       </c>
       <c r="AL27" s="32" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="AM27" s="32" t="s">
         <v>289</v>
@@ -8031,10 +8007,10 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
       <c r="J28" s="32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L28" s="32" t="s">
         <v>128</v>
@@ -8046,7 +8022,7 @@
         <v>303</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P28" s="33" t="n">
         <v>32882</v>
@@ -8103,13 +8079,13 @@
         <v>286</v>
       </c>
       <c r="AJ28" s="32" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="AK28" s="33" t="n">
-        <v>45636</v>
+        <v>45631</v>
       </c>
       <c r="AL28" s="32" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="AM28" s="32" t="s">
         <v>289</v>
@@ -8234,10 +8210,10 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K29" s="32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L29" s="32" t="s">
         <v>128</v>
@@ -8249,7 +8225,7 @@
         <v>303</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P29" s="33" t="n">
         <v>28760</v>
@@ -8312,7 +8288,7 @@
         <v>45637</v>
       </c>
       <c r="AL29" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="AM29" s="32" t="s">
         <v>289</v>
@@ -8437,10 +8413,10 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
       <c r="J30" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K30" s="32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L30" s="32" t="s">
         <v>128</v>
@@ -8449,10 +8425,10 @@
         <v>279</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P30" s="33" t="n">
         <v>34320</v>
@@ -8479,13 +8455,13 @@
         <v>305</v>
       </c>
       <c r="X30" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y30" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z30" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA30" s="32" t="s">
         <v>285</v>
@@ -8512,10 +8488,10 @@
         <v>287</v>
       </c>
       <c r="AK30" s="33" t="n">
-        <v>45638</v>
+        <v>45637</v>
       </c>
       <c r="AL30" s="32" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AM30" s="32" t="s">
         <v>289</v>
@@ -8640,10 +8616,10 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
       <c r="J31" s="32" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K31" s="32" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="L31" s="32" t="s">
         <v>128</v>
@@ -8652,10 +8628,10 @@
         <v>279</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="P31" s="33" t="n">
         <v>26215</v>
@@ -8682,13 +8658,13 @@
         <v>305</v>
       </c>
       <c r="X31" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y31" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z31" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA31" s="32" t="s">
         <v>285</v>
@@ -8715,10 +8691,10 @@
         <v>287</v>
       </c>
       <c r="AK31" s="33" t="n">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="AL31" s="32" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AM31" s="32" t="s">
         <v>289</v>
@@ -8841,10 +8817,10 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
       <c r="J32" s="32" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K32" s="32" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L32" s="32" t="s">
         <v>92</v>
@@ -8853,10 +8829,10 @@
         <v>279</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="P32" s="33" t="n">
         <v>31314</v>
@@ -8916,10 +8892,10 @@
         <v>287</v>
       </c>
       <c r="AK32" s="33" t="n">
-        <v>45640</v>
+        <v>45637</v>
       </c>
       <c r="AL32" s="32" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AM32" s="32" t="s">
         <v>289</v>
@@ -9042,10 +9018,10 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
       <c r="J33" s="32" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K33" s="32" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L33" s="32" t="s">
         <v>128</v>
@@ -9054,10 +9030,10 @@
         <v>279</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P33" s="33" t="n">
         <v>25038</v>
@@ -9084,13 +9060,13 @@
         <v>305</v>
       </c>
       <c r="X33" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y33" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z33" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA33" s="32" t="s">
         <v>285</v>
@@ -9117,10 +9093,10 @@
         <v>287</v>
       </c>
       <c r="AK33" s="33" t="n">
-        <v>45641</v>
+        <v>45637</v>
       </c>
       <c r="AL33" s="32" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="AM33" s="32" t="s">
         <v>289</v>
@@ -9243,10 +9219,10 @@
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="32" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K34" s="32" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L34" s="32" t="s">
         <v>128</v>
@@ -9258,7 +9234,7 @@
         <v>228</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P34" s="33" t="n">
         <v>33224</v>
@@ -9285,13 +9261,13 @@
         <v>305</v>
       </c>
       <c r="X34" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y34" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z34" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA34" s="32" t="s">
         <v>285</v>
@@ -9321,7 +9297,7 @@
         <v>45642</v>
       </c>
       <c r="AL34" s="32" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AM34" s="32" t="s">
         <v>289</v>
@@ -9444,10 +9420,10 @@
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="32" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K35" s="32" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L35" s="32" t="s">
         <v>128</v>
@@ -9456,10 +9432,10 @@
         <v>279</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P35" s="33" t="n">
         <v>29482</v>
@@ -9486,13 +9462,13 @@
         <v>305</v>
       </c>
       <c r="X35" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y35" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z35" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA35" s="32" t="s">
         <v>285</v>
@@ -9519,10 +9495,10 @@
         <v>287</v>
       </c>
       <c r="AK35" s="33" t="n">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="AL35" s="32" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AM35" s="32" t="s">
         <v>289</v>
@@ -9645,10 +9621,10 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="32" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="K36" s="32" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="L36" s="32" t="s">
         <v>128</v>
@@ -9660,7 +9636,7 @@
         <v>210</v>
       </c>
       <c r="O36" s="32" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P36" s="33" t="n">
         <v>28691</v>
@@ -9687,13 +9663,13 @@
         <v>305</v>
       </c>
       <c r="X36" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Y36" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z36" s="33" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AA36" s="32" t="s">
         <v>285</v>
@@ -9720,10 +9696,10 @@
         <v>287</v>
       </c>
       <c r="AK36" s="33" t="n">
-        <v>45644</v>
+        <v>45642</v>
       </c>
       <c r="AL36" s="32" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="AM36" s="32" t="s">
         <v>289</v>
@@ -9846,22 +9822,22 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="32" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K37" s="32" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L37" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P37" s="33" t="n">
         <v>27095</v>
@@ -9885,7 +9861,7 @@
         <v>45609</v>
       </c>
       <c r="W37" s="33" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="X37" s="32" t="s">
         <v>285</v>
@@ -9915,10 +9891,10 @@
         <v>287</v>
       </c>
       <c r="AK37" s="33" t="n">
-        <v>45645</v>
+        <v>45642</v>
       </c>
       <c r="AL37" s="32" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="AM37" s="32" t="s">
         <v>289</v>
@@ -10041,22 +10017,22 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="32" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K38" s="32" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="L38" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M38" s="32" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="N38" s="32" t="s">
         <v>210</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="P38" s="33" t="n">
         <v>33930</v>
@@ -10080,7 +10056,7 @@
         <v>45609</v>
       </c>
       <c r="W38" s="33" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="X38" s="32" t="s">
         <v>199</v>
@@ -10092,7 +10068,7 @@
         <v>200</v>
       </c>
       <c r="AA38" s="32" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AB38" s="33" t="n">
         <v>45610</v>
@@ -10104,7 +10080,7 @@
       <c r="AE38" s="32"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AH38" s="33" t="n">
         <v>45610</v>
@@ -10119,7 +10095,7 @@
         <v>45646</v>
       </c>
       <c r="AL38" s="32" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AM38" s="32" t="s">
         <v>289</v>
@@ -10221,10 +10197,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>98</v>
@@ -10236,28 +10212,28 @@
         <v>45579</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K39" s="32" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="L39" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N39" s="32" t="s">
         <v>143</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="P39" s="33" t="n">
         <v>29473</v>
@@ -10350,10 +10326,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>98</v>
@@ -10365,28 +10341,28 @@
         <v>45579</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
       <c r="J40" s="32" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K40" s="32" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="L40" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M40" s="32" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N40" s="32" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P40" s="33" t="n">
         <v>37026</v>
@@ -10479,10 +10455,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>98</v>
@@ -10494,28 +10470,28 @@
         <v>45579</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K41" s="32" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L41" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M41" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="O41" s="32" t="s">
         <v>380</v>
-      </c>
-      <c r="N41" s="32" t="s">
-        <v>388</v>
-      </c>
-      <c r="O41" s="32" t="s">
-        <v>389</v>
       </c>
       <c r="P41" s="33" t="n">
         <v>37233</v>
@@ -10608,10 +10584,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>98</v>
@@ -10623,28 +10599,28 @@
         <v>45579</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="K42" s="32" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="L42" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M42" s="32" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N42" s="32" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="P42" s="33" t="n">
         <v>37007</v>
@@ -10737,10 +10713,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>98</v>
@@ -10752,28 +10728,28 @@
         <v>45579</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K43" s="32" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="L43" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N43" s="32" t="s">
         <v>143</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="P43" s="33" t="n">
         <v>27674</v>
@@ -10866,10 +10842,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>98</v>
@@ -10881,28 +10857,28 @@
         <v>45579</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="K44" s="32" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="L44" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M44" s="32" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N44" s="32" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P44" s="33" t="n">
         <v>36087</v>
@@ -10995,10 +10971,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>98</v>
@@ -11010,28 +10986,28 @@
         <v>45579</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="K45" s="32" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="L45" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="P45" s="33" t="n">
         <v>32076</v>
@@ -11124,10 +11100,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="32" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>98</v>
@@ -11139,28 +11115,28 @@
         <v>45579</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="32" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K46" s="32" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L46" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M46" s="32" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="N46" s="32" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="P46" s="33" t="n">
         <v>37529</v>
@@ -11256,7 +11232,7 @@
         <v>86</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>98</v>
@@ -11274,22 +11250,22 @@
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K47" s="32" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L47" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="O47" s="32" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="P47" s="33" t="n">
         <v>31736</v>
@@ -11383,7 +11359,7 @@
         <v>86</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C48" s="33" t="n">
         <v>45610</v>
@@ -11401,22 +11377,22 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="32" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="K48" s="32" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L48" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M48" s="32" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="P48" s="33" t="n">
         <v>33808</v>
@@ -11434,22 +11410,22 @@
         <v>98</v>
       </c>
       <c r="U48" s="32" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="V48" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W48" s="33" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="X48" s="32" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Y48" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z48" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AA48" s="32"/>
       <c r="AB48" s="33"/>
@@ -11458,16 +11434,16 @@
       <c r="AE48" s="32"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="AH48" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI48" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AJ48" s="32" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AK48" s="33" t="n">
         <v>45656</v>
@@ -11476,13 +11452,13 @@
         <v>167</v>
       </c>
       <c r="AM48" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN48" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO48" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP48" s="32" t="s">
         <v>109</v>
@@ -11540,7 +11516,7 @@
         <v>86</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>98</v>
@@ -11558,10 +11534,10 @@
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
       <c r="J49" s="32" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K49" s="32" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L49" s="32" t="s">
         <v>128</v>
@@ -11570,10 +11546,10 @@
         <v>172</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="P49" s="33" t="n">
         <v>36243</v>
@@ -11615,13 +11591,13 @@
         <v>98</v>
       </c>
       <c r="AM49" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN49" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO49" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP49" s="32" t="s">
         <v>109</v>
@@ -11679,7 +11655,7 @@
         <v>86</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C50" s="33" t="n">
         <v>45614</v>
@@ -11697,10 +11673,10 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="L50" s="32" t="s">
         <v>128</v>
@@ -11709,10 +11685,10 @@
         <v>233</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="P50" s="33" t="n">
         <v>34162</v>
@@ -11730,16 +11706,16 @@
         <v>98</v>
       </c>
       <c r="U50" s="32" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="V50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W50" s="33" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="X50" s="32" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="Y50" s="33" t="n">
         <v>45613</v>
@@ -11748,43 +11724,43 @@
         <v>102</v>
       </c>
       <c r="AA50" s="32" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AB50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC50" s="33" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AH50" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI50" s="33" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AJ50" s="32" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="AK50" s="33" t="n">
         <v>45658</v>
       </c>
       <c r="AL50" s="32" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="AM50" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN50" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO50" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP50" s="32" t="s">
         <v>109</v>
@@ -11842,7 +11818,7 @@
         <v>86</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>98</v>
@@ -11860,10 +11836,10 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="K51" s="32" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="L51" s="32" t="s">
         <v>128</v>
@@ -11872,10 +11848,10 @@
         <v>233</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="P51" s="33" t="n">
         <v>27249</v>
@@ -11910,22 +11886,22 @@
       </c>
       <c r="AI51" s="32"/>
       <c r="AJ51" s="32" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="AK51" s="33" t="n">
         <v>45659</v>
       </c>
       <c r="AL51" s="32" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="AM51" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN51" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO51" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP51" s="32" t="s">
         <v>109</v>
@@ -11983,7 +11959,7 @@
         <v>86</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C52" s="33" t="n">
         <v>45614</v>
@@ -12001,10 +11977,10 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
       <c r="J52" s="32" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="K52" s="32" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="L52" s="32" t="s">
         <v>128</v>
@@ -12013,10 +11989,10 @@
         <v>239</v>
       </c>
       <c r="N52" s="32" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="P52" s="33" t="n">
         <v>37104</v>
@@ -12034,16 +12010,16 @@
         <v>98</v>
       </c>
       <c r="U52" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V52" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W52" s="33" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="X52" s="32" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="Y52" s="33" t="n">
         <v>45613</v>
@@ -12052,7 +12028,7 @@
         <v>252</v>
       </c>
       <c r="AA52" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AB52" s="33" t="n">
         <v>45614</v>
@@ -12064,7 +12040,7 @@
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AH52" s="33" t="n">
         <v>45614</v>
@@ -12073,22 +12049,22 @@
         <v>136</v>
       </c>
       <c r="AJ52" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK52" s="33" t="n">
         <v>45660</v>
       </c>
       <c r="AL52" s="32" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AM52" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN52" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO52" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP52" s="32" t="s">
         <v>109</v>
@@ -12146,7 +12122,7 @@
         <v>86</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C53" s="33" t="n">
         <v>45611</v>
@@ -12164,22 +12140,22 @@
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="L53" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="P53" s="33" t="n">
         <v>34929</v>
@@ -12197,22 +12173,22 @@
         <v>98</v>
       </c>
       <c r="U53" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="W53" s="33" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="X53" s="32" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="Y53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="Z53" s="33" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AA53" s="32"/>
       <c r="AB53" s="33"/>
@@ -12221,16 +12197,16 @@
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AH53" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AI53" s="33" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="AJ53" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK53" s="33" t="n">
         <v>45661</v>
@@ -12239,13 +12215,13 @@
         <v>167</v>
       </c>
       <c r="AM53" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN53" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO53" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP53" s="32" t="s">
         <v>109</v>
@@ -12303,7 +12279,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C54" s="33" t="n">
         <v>45614</v>
@@ -12321,10 +12297,10 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
       <c r="J54" s="32" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="K54" s="32" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="L54" s="32" t="s">
         <v>128</v>
@@ -12336,7 +12312,7 @@
         <v>303</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="P54" s="33" t="n">
         <v>29741</v>
@@ -12354,7 +12330,7 @@
         <v>98</v>
       </c>
       <c r="U54" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V54" s="33" t="n">
         <v>45612</v>
@@ -12363,7 +12339,7 @@
         <v>272</v>
       </c>
       <c r="X54" s="32" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Y54" s="33" t="n">
         <v>45613</v>
@@ -12372,43 +12348,43 @@
         <v>284</v>
       </c>
       <c r="AA54" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AB54" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC54" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AH54" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI54" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AJ54" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK54" s="33" t="n">
         <v>45662</v>
       </c>
       <c r="AL54" s="32" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AM54" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN54" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO54" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP54" s="32" t="s">
         <v>109</v>
@@ -12466,7 +12442,7 @@
         <v>86</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C55" s="33" t="n">
         <v>45614</v>
@@ -12484,10 +12460,10 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
       <c r="J55" s="32" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="K55" s="32" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L55" s="32" t="s">
         <v>128</v>
@@ -12496,10 +12472,10 @@
         <v>279</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="P55" s="33" t="n">
         <v>31350</v>
@@ -12517,7 +12493,7 @@
         <v>98</v>
       </c>
       <c r="U55" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V55" s="33" t="n">
         <v>45612</v>
@@ -12526,7 +12502,7 @@
         <v>272</v>
       </c>
       <c r="X55" s="32" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Y55" s="33" t="n">
         <v>45613</v>
@@ -12535,43 +12511,43 @@
         <v>284</v>
       </c>
       <c r="AA55" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AB55" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC55" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AH55" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI55" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AJ55" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK55" s="33" t="n">
         <v>45663</v>
       </c>
       <c r="AL55" s="32" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AM55" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN55" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO55" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP55" s="32" t="s">
         <v>109</v>
@@ -12629,7 +12605,7 @@
         <v>86</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C56" s="33" t="n">
         <v>45614</v>
@@ -12647,10 +12623,10 @@
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
       <c r="J56" s="32" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="K56" s="32" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L56" s="32" t="s">
         <v>128</v>
@@ -12662,7 +12638,7 @@
         <v>303</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="P56" s="33" t="n">
         <v>25535</v>
@@ -12680,7 +12656,7 @@
         <v>98</v>
       </c>
       <c r="U56" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V56" s="33" t="n">
         <v>45612</v>
@@ -12689,7 +12665,7 @@
         <v>272</v>
       </c>
       <c r="X56" s="32" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Y56" s="33" t="n">
         <v>45613</v>
@@ -12698,43 +12674,43 @@
         <v>284</v>
       </c>
       <c r="AA56" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AB56" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC56" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AH56" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI56" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AJ56" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK56" s="33" t="n">
         <v>45664</v>
       </c>
       <c r="AL56" s="32" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="AM56" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN56" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO56" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP56" s="32" t="s">
         <v>109</v>
@@ -12792,7 +12768,7 @@
         <v>86</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C57" s="33" t="n">
         <v>45614</v>
@@ -12810,10 +12786,10 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="K57" s="32" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="L57" s="32" t="s">
         <v>128</v>
@@ -12822,10 +12798,10 @@
         <v>279</v>
       </c>
       <c r="N57" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="P57" s="33" t="n">
         <v>32349</v>
@@ -12843,7 +12819,7 @@
         <v>98</v>
       </c>
       <c r="U57" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V57" s="33" t="n">
         <v>45612</v>
@@ -12852,7 +12828,7 @@
         <v>272</v>
       </c>
       <c r="X57" s="32" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Y57" s="33" t="n">
         <v>45613</v>
@@ -12861,43 +12837,43 @@
         <v>284</v>
       </c>
       <c r="AA57" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AB57" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC57" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AH57" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI57" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AJ57" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK57" s="33" t="n">
         <v>45665</v>
       </c>
       <c r="AL57" s="32" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AM57" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN57" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO57" s="32" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AP57" s="32" t="s">
         <v>109</v>
@@ -12955,7 +12931,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C58" s="33" t="n">
         <v>45614</v>
@@ -12973,10 +12949,10 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
       <c r="J58" s="32" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="K58" s="32" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="L58" s="32" t="s">
         <v>92</v>
@@ -12988,7 +12964,7 @@
         <v>183</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="P58" s="33" t="n">
         <v>28254</v>
@@ -13006,7 +12982,7 @@
         <v>98</v>
       </c>
       <c r="U58" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V58" s="33" t="n">
         <v>45612</v>
@@ -13015,7 +12991,7 @@
         <v>272</v>
       </c>
       <c r="X58" s="32" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Y58" s="33" t="n">
         <v>45613</v>
@@ -13024,43 +13000,43 @@
         <v>284</v>
       </c>
       <c r="AA58" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AB58" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC58" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AH58" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI58" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AJ58" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK58" s="33" t="n">
         <v>45665</v>
       </c>
       <c r="AL58" s="32" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AM58" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN58" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO58" s="32" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AP58" s="32" t="s">
         <v>109</v>
@@ -13118,7 +13094,7 @@
         <v>86</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C59" s="33" t="n">
         <v>45610</v>
@@ -13136,22 +13112,22 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="K59" s="32" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="L59" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M59" s="32" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="N59" s="32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="P59" s="33" t="n">
         <v>30460</v>
@@ -13169,61 +13145,61 @@
         <v>98</v>
       </c>
       <c r="U59" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V59" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W59" s="33" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="X59" s="32" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="Y59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z59" s="33" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AA59" s="32" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="AB59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC59" s="33" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="AH59" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI59" s="33" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="AJ59" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK59" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL59" s="32" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AM59" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN59" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO59" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP59" s="32" t="s">
         <v>109</v>
@@ -13281,7 +13257,7 @@
         <v>86</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C60" s="33" t="n">
         <v>45614</v>
@@ -13299,22 +13275,22 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
       <c r="J60" s="32" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="K60" s="32" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L60" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M60" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="N60" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="O60" s="32" t="s">
         <v>488</v>
-      </c>
-      <c r="N60" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="O60" s="32" t="s">
-        <v>497</v>
       </c>
       <c r="P60" s="33" t="n">
         <v>34043</v>
@@ -13332,7 +13308,7 @@
         <v>98</v>
       </c>
       <c r="U60" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V60" s="33" t="n">
         <v>45613</v>
@@ -13341,13 +13317,13 @@
         <v>149</v>
       </c>
       <c r="X60" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="Y60" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z60" s="33" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AA60" s="32"/>
       <c r="AB60" s="33"/>
@@ -13356,31 +13332,31 @@
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AH60" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI60" s="33" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AJ60" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK60" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL60" s="32" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="AM60" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN60" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO60" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP60" s="32" t="s">
         <v>109</v>
@@ -13438,7 +13414,7 @@
         <v>86</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C61" s="33" t="n">
         <v>45614</v>
@@ -13456,22 +13432,22 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
       <c r="J61" s="32" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="K61" s="32" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="L61" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="P61" s="33" t="n">
         <v>34862</v>
@@ -13489,7 +13465,7 @@
         <v>98</v>
       </c>
       <c r="U61" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V61" s="33" t="n">
         <v>45613</v>
@@ -13498,7 +13474,7 @@
         <v>149</v>
       </c>
       <c r="X61" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="Y61" s="33" t="n">
         <v>45614</v>
@@ -13513,7 +13489,7 @@
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AH61" s="33" t="n">
         <v>45614</v>
@@ -13522,22 +13498,22 @@
         <v>136</v>
       </c>
       <c r="AJ61" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK61" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL61" s="32" t="s">
-        <v>368</v>
+        <v>493</v>
       </c>
       <c r="AM61" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN61" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO61" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP61" s="32" t="s">
         <v>109</v>
@@ -13595,7 +13571,7 @@
         <v>86</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C62" s="33" t="n">
         <v>45614</v>
@@ -13613,22 +13589,22 @@
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
       <c r="J62" s="32" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="K62" s="32" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="L62" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M62" s="32" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="N62" s="32" t="s">
         <v>210</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="P62" s="33" t="n">
         <v>29744</v>
@@ -13646,16 +13622,16 @@
         <v>98</v>
       </c>
       <c r="U62" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W62" s="33" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="X62" s="32" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="Y62" s="33" t="n">
         <v>45613</v>
@@ -13664,43 +13640,43 @@
         <v>102</v>
       </c>
       <c r="AA62" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AB62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC62" s="33" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="AH62" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI62" s="33" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="AJ62" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK62" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL62" s="32" t="s">
-        <v>368</v>
+        <v>493</v>
       </c>
       <c r="AM62" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN62" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO62" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP62" s="32" t="s">
         <v>109</v>
@@ -13758,7 +13734,7 @@
         <v>86</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C63" s="33" t="n">
         <v>45610</v>
@@ -13776,22 +13752,22 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
       <c r="J63" s="32" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K63" s="32" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L63" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="P63" s="33" t="n">
         <v>26701</v>
@@ -13809,13 +13785,13 @@
         <v>98</v>
       </c>
       <c r="U63" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V63" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W63" s="33" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="X63" s="32" t="s">
         <v>285</v>
@@ -13824,7 +13800,7 @@
         <v>45609</v>
       </c>
       <c r="Z63" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AA63" s="32"/>
       <c r="AB63" s="33"/>
@@ -13839,25 +13815,25 @@
         <v>45609</v>
       </c>
       <c r="AI63" s="33" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AJ63" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK63" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL63" s="32" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="AM63" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN63" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO63" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP63" s="32" t="s">
         <v>109</v>
@@ -13915,7 +13891,7 @@
         <v>86</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C64" s="33" t="n">
         <v>45614</v>
@@ -13933,31 +13909,31 @@
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
       <c r="J64" s="32" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="K64" s="32" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="L64" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M64" s="32" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="N64" s="32" t="s">
         <v>143</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="P64" s="33" t="n">
         <v>24200</v>
       </c>
       <c r="Q64" s="32" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="R64" s="32" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="S64" s="32" t="s">
         <v>98</v>
@@ -13966,22 +13942,22 @@
         <v>98</v>
       </c>
       <c r="U64" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V64" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W64" s="33" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="X64" s="32" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="Y64" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z64" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AA64" s="32"/>
       <c r="AB64" s="33"/>
@@ -13990,31 +13966,31 @@
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AH64" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI64" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AJ64" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK64" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL64" s="32" t="s">
-        <v>368</v>
+        <v>493</v>
       </c>
       <c r="AM64" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN64" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO64" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP64" s="32" t="s">
         <v>109</v>
@@ -14072,7 +14048,7 @@
         <v>86</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C65" s="33" t="n">
         <v>45614</v>
@@ -14090,94 +14066,94 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
       <c r="J65" s="32" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="K65" s="32" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="L65" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M65" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="N65" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="O65" s="32" t="s">
         <v>514</v>
-      </c>
-      <c r="N65" s="32" t="s">
-        <v>521</v>
-      </c>
-      <c r="O65" s="32" t="s">
-        <v>522</v>
       </c>
       <c r="P65" s="33" t="n">
         <v>29879</v>
       </c>
       <c r="Q65" s="32" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="R65" s="32" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="S65" s="32" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="T65" s="32" t="s">
         <v>98</v>
       </c>
       <c r="U65" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W65" s="33" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="X65" s="32" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Y65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z65" s="33" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AA65" s="32" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AB65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AC65" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AD65" s="32"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AH65" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="AI65" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AJ65" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK65" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL65" s="32" t="s">
-        <v>368</v>
+        <v>493</v>
       </c>
       <c r="AM65" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN65" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO65" s="32" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AP65" s="32" t="s">
         <v>109</v>
@@ -14235,7 +14211,7 @@
         <v>86</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C66" s="33" t="n">
         <v>45614</v>
@@ -14253,28 +14229,28 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
       <c r="J66" s="32" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="K66" s="32" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="L66" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M66" s="32" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P66" s="33" t="n">
         <v>28476</v>
       </c>
       <c r="Q66" s="32" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="R66" s="32" t="s">
         <v>97</v>
@@ -14286,61 +14262,61 @@
         <v>98</v>
       </c>
       <c r="U66" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V66" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W66" s="33" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="X66" s="32" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Y66" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="Z66" s="33" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="AA66" s="32" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AB66" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AC66" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AH66" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AI66" s="33" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AJ66" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK66" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL66" s="32" t="s">
-        <v>368</v>
+        <v>493</v>
       </c>
       <c r="AM66" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN66" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO66" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP66" s="32" t="s">
         <v>109</v>
@@ -14398,7 +14374,7 @@
         <v>86</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C67" s="33" t="n">
         <v>45614</v>
@@ -14416,22 +14392,22 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
       <c r="J67" s="32" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="K67" s="32" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="L67" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M67" s="32" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N67" s="32" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="O67" s="32" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="P67" s="33" t="n">
         <v>28646</v>
@@ -14449,22 +14425,22 @@
         <v>98</v>
       </c>
       <c r="U67" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V67" s="33" t="n">
         <v>45613</v>
       </c>
       <c r="W67" s="33" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="X67" s="32" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="Y67" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="Z67" s="33" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AA67" s="32"/>
       <c r="AB67" s="33"/>
@@ -14473,31 +14449,31 @@
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AH67" s="33" t="n">
         <v>45614</v>
       </c>
       <c r="AI67" s="33" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="AJ67" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK67" s="33" t="n">
         <v>45675</v>
       </c>
       <c r="AL67" s="32" t="s">
-        <v>368</v>
+        <v>493</v>
       </c>
       <c r="AM67" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN67" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO67" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP67" s="32" t="s">
         <v>109</v>
@@ -14555,7 +14531,7 @@
         <v>86</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C68" s="33" t="n">
         <v>45610</v>
@@ -14573,31 +14549,31 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
       <c r="J68" s="32" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="K68" s="32" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L68" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M68" s="32" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N68" s="32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="O68" s="32" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="P68" s="33" t="n">
         <v>34573</v>
       </c>
       <c r="Q68" s="32" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="R68" s="32" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="S68" s="32" t="s">
         <v>98</v>
@@ -14606,22 +14582,22 @@
         <v>98</v>
       </c>
       <c r="U68" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="W68" s="33" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="X68" s="32" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="Y68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="Z68" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AA68" s="32"/>
       <c r="AB68" s="33"/>
@@ -14630,31 +14606,31 @@
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="AH68" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI68" s="33" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="AJ68" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK68" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL68" s="32" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="AM68" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN68" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO68" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP68" s="32" t="s">
         <v>109</v>
@@ -14712,7 +14688,7 @@
         <v>86</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C69" s="33" t="n">
         <v>45610</v>
@@ -14730,28 +14706,28 @@
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
       <c r="J69" s="32" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="K69" s="32" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L69" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M69" s="32" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="N69" s="32" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="O69" s="32" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="P69" s="33" t="n">
         <v>29004</v>
       </c>
       <c r="Q69" s="32" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="R69" s="32" t="s">
         <v>96</v>
@@ -14763,67 +14739,67 @@
         <v>97</v>
       </c>
       <c r="U69" s="32" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="V69" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="W69" s="33" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="X69" s="32" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="Y69" s="33" t="n">
         <v>45608</v>
       </c>
       <c r="Z69" s="33" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AA69" s="32" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="AB69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AC69" s="33" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AD69" s="32" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="AE69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AF69" s="32" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AG69" s="32" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="AH69" s="33" t="n">
         <v>45609</v>
       </c>
       <c r="AI69" s="32" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="AJ69" s="32" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="AK69" s="33" t="n">
         <v>45610</v>
       </c>
       <c r="AL69" s="32" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="AM69" s="32" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AN69" s="33" t="n">
         <v>45615</v>
       </c>
       <c r="AO69" s="32" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AP69" s="32" t="s">
         <v>109</v>
@@ -15417,7 +15393,7 @@
   <dimension ref="A1:BV5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W5" activeCellId="1" sqref="AO48 W5"/>
+      <selection pane="topLeft" activeCell="W5" activeCellId="1" sqref="AJ38:AL38 W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15503,7 +15479,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>3</v>
@@ -15512,13 +15488,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>8</v>
@@ -15742,28 +15718,28 @@
         <v>125</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>143</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="P2" s="33" t="n">
         <v>36506</v>
@@ -15773,13 +15749,13 @@
       <c r="S2" s="32"/>
       <c r="T2" s="32"/>
       <c r="U2" s="32" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="V2" s="32" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="W2" s="32" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="X2" s="32"/>
       <c r="Y2" s="32"/>
@@ -15835,10 +15811,10 @@
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C3" s="33" t="n">
         <v>45569</v>
@@ -15850,40 +15826,40 @@
         <v>45574</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>89</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="I3" s="32" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="J3" s="32" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="K3" s="32" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="L3" s="32" t="s">
         <v>128</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="N3" s="32" t="s">
         <v>143</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="P3" s="33" t="n">
         <v>24829</v>
       </c>
       <c r="Q3" s="32" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="R3" s="32"/>
       <c r="S3" s="32"/>
@@ -15898,22 +15874,22 @@
         <v>108</v>
       </c>
       <c r="X3" s="32" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Y3" s="33" t="n">
         <v>45557</v>
       </c>
       <c r="Z3" s="32" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="AA3" s="32" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="AB3" s="49" t="n">
         <v>45557</v>
       </c>
       <c r="AC3" s="32" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="AD3" s="32" t="s">
         <v>109</v>
@@ -15928,7 +15904,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="32" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="AI3" s="49" t="n">
         <v>45557</v>
@@ -15937,13 +15913,13 @@
         <v>45558</v>
       </c>
       <c r="AK3" s="32" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AL3" s="32" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="AM3" s="32" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="AN3" s="49" t="n">
         <v>45557</v>
@@ -15952,10 +15928,10 @@
         <v>45558</v>
       </c>
       <c r="AP3" s="32" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AQ3" s="32" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="AR3" s="32" t="s">
         <v>115</v>
@@ -15967,10 +15943,10 @@
         <v>45558</v>
       </c>
       <c r="AU3" s="32" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="AV3" s="32" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AW3" s="32" t="s">
         <v>117</v>
@@ -16009,7 +15985,7 @@
         <v>45557</v>
       </c>
       <c r="BI3" s="32" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="BJ3" s="32" t="s">
         <v>244</v>
@@ -16021,7 +15997,7 @@
         <v>45557</v>
       </c>
       <c r="BM3" s="32" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="BN3" s="32" t="s">
         <v>244</v>
@@ -16033,16 +16009,16 @@
         <v>45557</v>
       </c>
       <c r="BQ3" s="32" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="BR3" s="32" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="BS3" s="32" t="s">
         <v>122</v>
       </c>
       <c r="BT3" s="32" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="BU3" s="49" t="n">
         <v>45557</v>
@@ -16053,10 +16029,10 @@
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C4" s="33" t="n">
         <v>45918</v>
@@ -16068,33 +16044,33 @@
         <v>45918</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="L4" s="32" t="s">
         <v>92</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="Q4" s="32"/>
       <c r="R4" s="32"/>
@@ -16107,16 +16083,16 @@
         <v>45611</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Y4" s="33" t="n">
         <v>45558</v>
       </c>
       <c r="Z4" s="32" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="AA4" s="32"/>
       <c r="AB4" s="32"/>
@@ -16166,11 +16142,11 @@
       <c r="BR4" s="32"/>
       <c r="BS4" s="32"/>
       <c r="BT4" s="32" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="BU4" s="32"/>
       <c r="BV4" s="32" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/ejemplo_carga_masiva.xlsx
+++ b/ejemplo_carga_masiva.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="592">
   <si>
     <t xml:space="preserve">Owner</t>
   </si>
@@ -2359,8 +2359,8 @@
   </sheetPr>
   <dimension ref="A1:CH75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ38" activeCellId="0" sqref="AJ38:AL38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BA10" activeCellId="0" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2843,10 +2843,10 @@
         <v>112</v>
       </c>
       <c r="AU2" s="33" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="AV2" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW2" s="32" t="s">
         <v>113</v>
@@ -3057,10 +3057,10 @@
         <v>112</v>
       </c>
       <c r="AU3" s="33" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="AV3" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW3" s="32" t="s">
         <v>139</v>
@@ -3441,10 +3441,10 @@
         <v>112</v>
       </c>
       <c r="AU5" s="33" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="AV5" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW5" s="32" t="s">
         <v>169</v>
@@ -3658,7 +3658,7 @@
         <v>45611</v>
       </c>
       <c r="AV6" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW6" s="32"/>
       <c r="AX6" s="32" t="s">
@@ -3861,7 +3861,7 @@
         <v>45611</v>
       </c>
       <c r="AV7" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW7" s="32"/>
       <c r="AX7" s="32" t="s">
@@ -4064,7 +4064,7 @@
         <v>45611</v>
       </c>
       <c r="AV8" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW8" s="32"/>
       <c r="AX8" s="32" t="s">
@@ -4264,10 +4264,10 @@
         <v>112</v>
       </c>
       <c r="AU9" s="33" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="AV9" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW9" s="32" t="s">
         <v>139</v>
@@ -4488,10 +4488,10 @@
         <v>112</v>
       </c>
       <c r="AU10" s="33" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="AV10" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW10" s="32" t="s">
         <v>139</v>
@@ -4704,7 +4704,7 @@
         <v>45611</v>
       </c>
       <c r="AV11" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW11" s="32"/>
       <c r="AX11" s="32" t="s">
@@ -4897,7 +4897,7 @@
         <v>45611</v>
       </c>
       <c r="AV12" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW12" s="32"/>
       <c r="AX12" s="32" t="s">
@@ -5090,7 +5090,7 @@
         <v>45611</v>
       </c>
       <c r="AV13" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW13" s="32"/>
       <c r="AX13" s="32" t="s">
@@ -5283,7 +5283,7 @@
         <v>45611</v>
       </c>
       <c r="AV14" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW14" s="32"/>
       <c r="AX14" s="32" t="s">
@@ -5476,7 +5476,7 @@
         <v>45611</v>
       </c>
       <c r="AV15" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW15" s="32"/>
       <c r="AX15" s="32" t="s">
@@ -5666,10 +5666,10 @@
         <v>112</v>
       </c>
       <c r="AU16" s="33" t="n">
-        <v>45610</v>
+        <v>45611</v>
       </c>
       <c r="AV16" s="33" t="n">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="AW16" s="32" t="s">
         <v>153</v>
@@ -15392,8 +15392,8 @@
   </sheetPr>
   <dimension ref="A1:BV5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W5" activeCellId="1" sqref="AJ38:AL38 W5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ3" activeCellId="0" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15907,10 +15907,10 @@
         <v>570</v>
       </c>
       <c r="AI3" s="49" t="n">
-        <v>45557</v>
+        <v>45570</v>
       </c>
       <c r="AJ3" s="49" t="n">
-        <v>45558</v>
+        <v>45571</v>
       </c>
       <c r="AK3" s="32" t="s">
         <v>571</v>
@@ -15922,10 +15922,10 @@
         <v>573</v>
       </c>
       <c r="AN3" s="49" t="n">
-        <v>45557</v>
+        <v>45571</v>
       </c>
       <c r="AO3" s="49" t="n">
-        <v>45558</v>
+        <v>45572</v>
       </c>
       <c r="AP3" s="32" t="s">
         <v>571</v>
@@ -15937,10 +15937,10 @@
         <v>115</v>
       </c>
       <c r="AS3" s="49" t="n">
-        <v>45557</v>
+        <v>45573</v>
       </c>
       <c r="AT3" s="49" t="n">
-        <v>45558</v>
+        <v>45574</v>
       </c>
       <c r="AU3" s="32" t="s">
         <v>571</v>
@@ -16127,10 +16127,18 @@
       <c r="BE4" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
+      <c r="BF4" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG4" s="49" t="n">
+        <v>45587</v>
+      </c>
+      <c r="BH4" s="49" t="n">
+        <v>45587</v>
+      </c>
+      <c r="BI4" s="32" t="s">
+        <v>214</v>
+      </c>
       <c r="BJ4" s="32"/>
       <c r="BK4" s="32"/>
       <c r="BL4" s="32"/>
